--- a/input/aduanas_25/03_25.xlsx
+++ b/input/aduanas_25/03_25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anamgobmx-my.sharepoint.com/personal/diana_dupotex_anam_gob_mx/Documents/Contabilidad_DD/2025/CONCEPTO DIARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C1BE35D-9186-4659-B083-C1EFF6A59D11}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91FF766-41ED-4015-BB9F-79F6A6A574D9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="31" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01 " sheetId="32" r:id="rId1"/>
@@ -36861,8 +36861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78120FC-0C14-4C1A-A13C-959F0A623926}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H65" sqref="H64:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1"/>
@@ -37001,11 +37001,11 @@
       </c>
       <c r="H7" s="11">
         <f>'01 '!H7+'02'!H7+'03'!H7+'04'!H7+'05'!H7+'06'!H7+'07'!H7+'08'!H7+'09'!H7+'10'!H7+'11'!H7+'12'!H7+'13'!H7+'14'!H7+'15'!H7+'16'!H7+'17'!H7+'18'!H7+'19'!H7+'20'!H7+'21'!H7+'22'!H7+'23'!H7+'24'!H7+'25'!H7+'26'!H7+'27'!H7+'28'!H7+'29'!H7+'30'!H7+'31'!H7</f>
-        <v>50480</v>
+        <v>67980</v>
       </c>
       <c r="I7" s="11">
         <f>SUM(C7:H7)</f>
-        <v>50480</v>
+        <v>67980</v>
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="12"/>
@@ -37019,15 +37019,15 @@
       </c>
       <c r="C8" s="13">
         <f>'01 '!C8+'02'!C8+'03'!C8+'04'!C8+'05'!C8+'06'!C8+'07'!C8+'08'!C8+'09'!C8+'10'!C8+'11'!C8+'12'!C8+'13'!C8+'14'!C8+'15'!C8+'16'!C8+'17'!C8+'18'!C8+'19'!C8+'20'!C8+'21'!C8+'22'!C8+'23'!C8+'24'!C8+'25'!C8+'26'!C8+'27'!C8+'28'!C8+'29'!C8+'30'!C8+'31'!C8</f>
-        <v>26190943</v>
+        <v>36312841</v>
       </c>
       <c r="D8" s="13">
         <f>'01 '!D8+'02'!D8+'03'!D8+'04'!D8+'05'!D8+'06'!D8+'07'!D8+'08'!D8+'09'!D8+'10'!D8+'11'!D8+'12'!D8+'13'!D8+'14'!D8+'15'!D8+'16'!D8+'17'!D8+'18'!D8+'19'!D8+'20'!D8+'21'!D8+'22'!D8+'23'!D8+'24'!D8+'25'!D8+'26'!D8+'27'!D8+'28'!D8+'29'!D8+'30'!D8+'31'!D8</f>
-        <v>1193115</v>
+        <v>1238392</v>
       </c>
       <c r="E8" s="13">
         <f>'01 '!E8+'02'!E8+'03'!E8+'04'!E8+'05'!E8+'06'!E8+'07'!E8+'08'!E8+'09'!E8+'10'!E8+'11'!E8+'12'!E8+'13'!E8+'14'!E8+'15'!E8+'16'!E8+'17'!E8+'18'!E8+'19'!E8+'20'!E8+'21'!E8+'22'!E8+'23'!E8+'24'!E8+'25'!E8+'26'!E8+'27'!E8+'28'!E8+'29'!E8+'30'!E8+'31'!E8</f>
-        <v>223237</v>
+        <v>245618</v>
       </c>
       <c r="F8" s="13">
         <f>'01 '!F8+'02'!F8+'03'!F8+'04'!F8+'05'!F8+'06'!F8+'07'!F8+'08'!F8+'09'!F8+'10'!F8+'11'!F8+'12'!F8+'13'!F8+'14'!F8+'15'!F8+'16'!F8+'17'!F8+'18'!F8+'19'!F8+'20'!F8+'21'!F8+'22'!F8+'23'!F8+'24'!F8+'25'!F8+'26'!F8+'27'!F8+'28'!F8+'29'!F8+'30'!F8+'31'!F8</f>
@@ -37039,11 +37039,11 @@
       </c>
       <c r="H8" s="13">
         <f>'01 '!H8+'02'!H8+'03'!H8+'04'!H8+'05'!H8+'06'!H8+'07'!H8+'08'!H8+'09'!H8+'10'!H8+'11'!H8+'12'!H8+'13'!H8+'14'!H8+'15'!H8+'16'!H8+'17'!H8+'18'!H8+'19'!H8+'20'!H8+'21'!H8+'22'!H8+'23'!H8+'24'!H8+'25'!H8+'26'!H8+'27'!H8+'28'!H8+'29'!H8+'30'!H8+'31'!H8</f>
-        <v>52110</v>
+        <v>74980</v>
       </c>
       <c r="I8" s="13">
         <f>SUM(C8:H8)</f>
-        <v>27659405</v>
+        <v>37871831</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="12"/>
@@ -37062,7 +37062,7 @@
       </c>
       <c r="C9" s="15">
         <f>'01 '!C9+'02'!C9+'03'!C9+'04'!C9+'05'!C9+'06'!C9+'07'!C9+'08'!C9+'09'!C9+'10'!C9+'11'!C9+'12'!C9+'13'!C9+'14'!C9+'15'!C9+'16'!C9+'17'!C9+'18'!C9+'19'!C9+'20'!C9+'21'!C9+'22'!C9+'23'!C9+'24'!C9+'25'!C9+'26'!C9+'27'!C9+'28'!C9+'29'!C9+'30'!C9+'31'!C9</f>
-        <v>173567</v>
+        <v>334716</v>
       </c>
       <c r="D9" s="15">
         <f>'01 '!D9+'02'!D9+'03'!D9+'04'!D9+'05'!D9+'06'!D9+'07'!D9+'08'!D9+'09'!D9+'10'!D9+'11'!D9+'12'!D9+'13'!D9+'14'!D9+'15'!D9+'16'!D9+'17'!D9+'18'!D9+'19'!D9+'20'!D9+'21'!D9+'22'!D9+'23'!D9+'24'!D9+'25'!D9+'26'!D9+'27'!D9+'28'!D9+'29'!D9+'30'!D9+'31'!D9</f>
@@ -37070,7 +37070,7 @@
       </c>
       <c r="E9" s="15">
         <f>'01 '!E9+'02'!E9+'03'!E9+'04'!E9+'05'!E9+'06'!E9+'07'!E9+'08'!E9+'09'!E9+'10'!E9+'11'!E9+'12'!E9+'13'!E9+'14'!E9+'15'!E9+'16'!E9+'17'!E9+'18'!E9+'19'!E9+'20'!E9+'21'!E9+'22'!E9+'23'!E9+'24'!E9+'25'!E9+'26'!E9+'27'!E9+'28'!E9+'29'!E9+'30'!E9+'31'!E9</f>
-        <v>101563</v>
+        <v>140349</v>
       </c>
       <c r="F9" s="15">
         <f>'01 '!F9+'02'!F9+'03'!F9+'04'!F9+'05'!F9+'06'!F9+'07'!F9+'08'!F9+'09'!F9+'10'!F9+'11'!F9+'12'!F9+'13'!F9+'14'!F9+'15'!F9+'16'!F9+'17'!F9+'18'!F9+'19'!F9+'20'!F9+'21'!F9+'22'!F9+'23'!F9+'24'!F9+'25'!F9+'26'!F9+'27'!F9+'28'!F9+'29'!F9+'30'!F9+'31'!F9</f>
@@ -37082,11 +37082,11 @@
       </c>
       <c r="H9" s="15">
         <f>'01 '!H9+'02'!H9+'03'!H9+'04'!H9+'05'!H9+'06'!H9+'07'!H9+'08'!H9+'09'!H9+'10'!H9+'11'!H9+'12'!H9+'13'!H9+'14'!H9+'15'!H9+'16'!H9+'17'!H9+'18'!H9+'19'!H9+'20'!H9+'21'!H9+'22'!H9+'23'!H9+'24'!H9+'25'!H9+'26'!H9+'27'!H9+'28'!H9+'29'!H9+'30'!H9+'31'!H9</f>
-        <v>21460</v>
+        <v>26100</v>
       </c>
       <c r="I9" s="15">
         <f>SUM(C9:H9)</f>
-        <v>346837</v>
+        <v>551412</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="12"/>
@@ -37138,19 +37138,19 @@
       </c>
       <c r="C11" s="15">
         <f>'01 '!C11+'02'!C11+'03'!C11+'04'!C11+'05'!C11+'06'!C11+'07'!C11+'08'!C11+'09'!C11+'10'!C11+'11'!C11+'12'!C11+'13'!C11+'14'!C11+'15'!C11+'16'!C11+'17'!C11+'18'!C11+'19'!C11+'20'!C11+'21'!C11+'22'!C11+'23'!C11+'24'!C11+'25'!C11+'26'!C11+'27'!C11+'28'!C11+'29'!C11+'30'!C11+'31'!C11</f>
-        <v>536737634</v>
+        <v>1231315055</v>
       </c>
       <c r="D11" s="15">
         <f>'01 '!D11+'02'!D11+'03'!D11+'04'!D11+'05'!D11+'06'!D11+'07'!D11+'08'!D11+'09'!D11+'10'!D11+'11'!D11+'12'!D11+'13'!D11+'14'!D11+'15'!D11+'16'!D11+'17'!D11+'18'!D11+'19'!D11+'20'!D11+'21'!D11+'22'!D11+'23'!D11+'24'!D11+'25'!D11+'26'!D11+'27'!D11+'28'!D11+'29'!D11+'30'!D11+'31'!D11</f>
-        <v>47002306</v>
+        <v>74208074</v>
       </c>
       <c r="E11" s="15">
         <f>'01 '!E11+'02'!E11+'03'!E11+'04'!E11+'05'!E11+'06'!E11+'07'!E11+'08'!E11+'09'!E11+'10'!E11+'11'!E11+'12'!E11+'13'!E11+'14'!E11+'15'!E11+'16'!E11+'17'!E11+'18'!E11+'19'!E11+'20'!E11+'21'!E11+'22'!E11+'23'!E11+'24'!E11+'25'!E11+'26'!E11+'27'!E11+'28'!E11+'29'!E11+'30'!E11+'31'!E11</f>
-        <v>10300755</v>
+        <v>20575559</v>
       </c>
       <c r="F11" s="15">
         <f>'01 '!F11+'02'!F11+'03'!F11+'04'!F11+'05'!F11+'06'!F11+'07'!F11+'08'!F11+'09'!F11+'10'!F11+'11'!F11+'12'!F11+'13'!F11+'14'!F11+'15'!F11+'16'!F11+'17'!F11+'18'!F11+'19'!F11+'20'!F11+'21'!F11+'22'!F11+'23'!F11+'24'!F11+'25'!F11+'26'!F11+'27'!F11+'28'!F11+'29'!F11+'30'!F11+'31'!F11</f>
-        <v>171214425</v>
+        <v>873839335</v>
       </c>
       <c r="G11" s="15">
         <f>'01 '!G11+'02'!G11+'03'!G11+'04'!G11+'05'!G11+'06'!G11+'07'!G11+'08'!G11+'09'!G11+'10'!G11+'11'!G11+'12'!G11+'13'!G11+'14'!G11+'15'!G11+'16'!G11+'17'!G11+'18'!G11+'19'!G11+'20'!G11+'21'!G11+'22'!G11+'23'!G11+'24'!G11+'25'!G11+'26'!G11+'27'!G11+'28'!G11+'29'!G11+'30'!G11+'31'!G11</f>
@@ -37158,11 +37158,11 @@
       </c>
       <c r="H11" s="15">
         <f>'01 '!H11+'02'!H11+'03'!H11+'04'!H11+'05'!H11+'06'!H11+'07'!H11+'08'!H11+'09'!H11+'10'!H11+'11'!H11+'12'!H11+'13'!H11+'14'!H11+'15'!H11+'16'!H11+'17'!H11+'18'!H11+'19'!H11+'20'!H11+'21'!H11+'22'!H11+'23'!H11+'24'!H11+'25'!H11+'26'!H11+'27'!H11+'28'!H11+'29'!H11+'30'!H11+'31'!H11</f>
-        <v>5828912</v>
+        <v>8469987</v>
       </c>
       <c r="I11" s="15">
         <f>SUM(C11:H11)</f>
-        <v>771086532</v>
+        <v>2208410510</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="12"/>
@@ -37181,7 +37181,7 @@
       </c>
       <c r="C12" s="13">
         <f>'01 '!C12+'02'!C12+'03'!C12+'04'!C12+'05'!C12+'06'!C12+'07'!C12+'08'!C12+'09'!C12+'10'!C12+'11'!C12+'12'!C12+'13'!C12+'14'!C12+'15'!C12+'16'!C12+'17'!C12+'18'!C12+'19'!C12+'20'!C12+'21'!C12+'22'!C12+'23'!C12+'24'!C12+'25'!C12+'26'!C12+'27'!C12+'28'!C12+'29'!C12+'30'!C12+'31'!C12</f>
-        <v>131325842</v>
+        <v>168676500</v>
       </c>
       <c r="D12" s="13">
         <f>'01 '!D12+'02'!D12+'03'!D12+'04'!D12+'05'!D12+'06'!D12+'07'!D12+'08'!D12+'09'!D12+'10'!D12+'11'!D12+'12'!D12+'13'!D12+'14'!D12+'15'!D12+'16'!D12+'17'!D12+'18'!D12+'19'!D12+'20'!D12+'21'!D12+'22'!D12+'23'!D12+'24'!D12+'25'!D12+'26'!D12+'27'!D12+'28'!D12+'29'!D12+'30'!D12+'31'!D12</f>
@@ -37189,7 +37189,7 @@
       </c>
       <c r="E12" s="13">
         <f>'01 '!E12+'02'!E12+'03'!E12+'04'!E12+'05'!E12+'06'!E12+'07'!E12+'08'!E12+'09'!E12+'10'!E12+'11'!E12+'12'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12+'20'!E12+'21'!E12+'22'!E12+'23'!E12+'24'!E12+'25'!E12+'26'!E12+'27'!E12+'28'!E12+'29'!E12+'30'!E12+'31'!E12</f>
-        <v>2061042</v>
+        <v>2599185</v>
       </c>
       <c r="F12" s="13">
         <f>'01 '!F12+'02'!F12+'03'!F12+'04'!F12+'05'!F12+'06'!F12+'07'!F12+'08'!F12+'09'!F12+'10'!F12+'11'!F12+'12'!F12+'13'!F12+'14'!F12+'15'!F12+'16'!F12+'17'!F12+'18'!F12+'19'!F12+'20'!F12+'21'!F12+'22'!F12+'23'!F12+'24'!F12+'25'!F12+'26'!F12+'27'!F12+'28'!F12+'29'!F12+'30'!F12+'31'!F12</f>
@@ -37201,11 +37201,11 @@
       </c>
       <c r="H12" s="13">
         <f>'01 '!H12+'02'!H12+'03'!H12+'04'!H12+'05'!H12+'06'!H12+'07'!H12+'08'!H12+'09'!H12+'10'!H12+'11'!H12+'12'!H12+'13'!H12+'14'!H12+'15'!H12+'16'!H12+'17'!H12+'18'!H12+'19'!H12+'20'!H12+'21'!H12+'22'!H12+'23'!H12+'24'!H12+'25'!H12+'26'!H12+'27'!H12+'28'!H12+'29'!H12+'30'!H12+'31'!H12</f>
-        <v>28855</v>
+        <v>41370</v>
       </c>
       <c r="I12" s="13">
         <f>SUM(C12:H12)</f>
-        <v>136116317</v>
+        <v>174017633</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="12"/>
@@ -37224,19 +37224,19 @@
       </c>
       <c r="C13" s="15">
         <f>'01 '!C13+'02'!C13+'03'!C13+'04'!C13+'05'!C13+'06'!C13+'07'!C13+'08'!C13+'09'!C13+'10'!C13+'11'!C13+'12'!C13+'13'!C13+'14'!C13+'15'!C13+'16'!C13+'17'!C13+'18'!C13+'19'!C13+'20'!C13+'21'!C13+'22'!C13+'23'!C13+'24'!C13+'25'!C13+'26'!C13+'27'!C13+'28'!C13+'29'!C13+'30'!C13+'31'!C13</f>
-        <v>18160153</v>
+        <v>22672738</v>
       </c>
       <c r="D13" s="15">
         <f>'01 '!D13+'02'!D13+'03'!D13+'04'!D13+'05'!D13+'06'!D13+'07'!D13+'08'!D13+'09'!D13+'10'!D13+'11'!D13+'12'!D13+'13'!D13+'14'!D13+'15'!D13+'16'!D13+'17'!D13+'18'!D13+'19'!D13+'20'!D13+'21'!D13+'22'!D13+'23'!D13+'24'!D13+'25'!D13+'26'!D13+'27'!D13+'28'!D13+'29'!D13+'30'!D13+'31'!D13</f>
-        <v>3712602</v>
+        <v>4331643</v>
       </c>
       <c r="E13" s="15">
         <f>'01 '!E13+'02'!E13+'03'!E13+'04'!E13+'05'!E13+'06'!E13+'07'!E13+'08'!E13+'09'!E13+'10'!E13+'11'!E13+'12'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13+'20'!E13+'21'!E13+'22'!E13+'23'!E13+'24'!E13+'25'!E13+'26'!E13+'27'!E13+'28'!E13+'29'!E13+'30'!E13+'31'!E13</f>
-        <v>1108530</v>
+        <v>1399533</v>
       </c>
       <c r="F13" s="15">
         <f>'01 '!F13+'02'!F13+'03'!F13+'04'!F13+'05'!F13+'06'!F13+'07'!F13+'08'!F13+'09'!F13+'10'!F13+'11'!F13+'12'!F13+'13'!F13+'14'!F13+'15'!F13+'16'!F13+'17'!F13+'18'!F13+'19'!F13+'20'!F13+'21'!F13+'22'!F13+'23'!F13+'24'!F13+'25'!F13+'26'!F13+'27'!F13+'28'!F13+'29'!F13+'30'!F13+'31'!F13</f>
-        <v>96860</v>
+        <v>188062</v>
       </c>
       <c r="G13" s="15">
         <f>'01 '!G13+'02'!G13+'03'!G13+'04'!G13+'05'!G13+'06'!G13+'07'!G13+'08'!G13+'09'!G13+'10'!G13+'11'!G13+'12'!G13+'13'!G13+'14'!G13+'15'!G13+'16'!G13+'17'!G13+'18'!G13+'19'!G13+'20'!G13+'21'!G13+'22'!G13+'23'!G13+'24'!G13+'25'!G13+'26'!G13+'27'!G13+'28'!G13+'29'!G13+'30'!G13+'31'!G13</f>
@@ -37244,11 +37244,11 @@
       </c>
       <c r="H13" s="15">
         <f>'01 '!H13+'02'!H13+'03'!H13+'04'!H13+'05'!H13+'06'!H13+'07'!H13+'08'!H13+'09'!H13+'10'!H13+'11'!H13+'12'!H13+'13'!H13+'14'!H13+'15'!H13+'16'!H13+'17'!H13+'18'!H13+'19'!H13+'20'!H13+'21'!H13+'22'!H13+'23'!H13+'24'!H13+'25'!H13+'26'!H13+'27'!H13+'28'!H13+'29'!H13+'30'!H13+'31'!H13</f>
-        <v>111368</v>
+        <v>140649</v>
       </c>
       <c r="I13" s="15">
         <f>SUM(C13:H13)</f>
-        <v>23189513</v>
+        <v>28732625</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="12"/>
@@ -37267,15 +37267,15 @@
       </c>
       <c r="C14" s="13">
         <f>'01 '!C14+'02'!C14+'03'!C14+'04'!C14+'05'!C14+'06'!C14+'07'!C14+'08'!C14+'09'!C14+'10'!C14+'11'!C14+'12'!C14+'13'!C14+'14'!C14+'15'!C14+'16'!C14+'17'!C14+'18'!C14+'19'!C14+'20'!C14+'21'!C14+'22'!C14+'23'!C14+'24'!C14+'25'!C14+'26'!C14+'27'!C14+'28'!C14+'29'!C14+'30'!C14+'31'!C14</f>
-        <v>66520965</v>
+        <v>89695414</v>
       </c>
       <c r="D14" s="13">
         <f>'01 '!D14+'02'!D14+'03'!D14+'04'!D14+'05'!D14+'06'!D14+'07'!D14+'08'!D14+'09'!D14+'10'!D14+'11'!D14+'12'!D14+'13'!D14+'14'!D14+'15'!D14+'16'!D14+'17'!D14+'18'!D14+'19'!D14+'20'!D14+'21'!D14+'22'!D14+'23'!D14+'24'!D14+'25'!D14+'26'!D14+'27'!D14+'28'!D14+'29'!D14+'30'!D14+'31'!D14</f>
-        <v>34510360</v>
+        <v>46356677</v>
       </c>
       <c r="E14" s="13">
         <f>'01 '!E14+'02'!E14+'03'!E14+'04'!E14+'05'!E14+'06'!E14+'07'!E14+'08'!E14+'09'!E14+'10'!E14+'11'!E14+'12'!E14+'13'!E14+'14'!E14+'15'!E14+'16'!E14+'17'!E14+'18'!E14+'19'!E14+'20'!E14+'21'!E14+'22'!E14+'23'!E14+'24'!E14+'25'!E14+'26'!E14+'27'!E14+'28'!E14+'29'!E14+'30'!E14+'31'!E14</f>
-        <v>3625550</v>
+        <v>4827109</v>
       </c>
       <c r="F14" s="13">
         <f>'01 '!F14+'02'!F14+'03'!F14+'04'!F14+'05'!F14+'06'!F14+'07'!F14+'08'!F14+'09'!F14+'10'!F14+'11'!F14+'12'!F14+'13'!F14+'14'!F14+'15'!F14+'16'!F14+'17'!F14+'18'!F14+'19'!F14+'20'!F14+'21'!F14+'22'!F14+'23'!F14+'24'!F14+'25'!F14+'26'!F14+'27'!F14+'28'!F14+'29'!F14+'30'!F14+'31'!F14</f>
@@ -37287,11 +37287,11 @@
       </c>
       <c r="H14" s="13">
         <f>'01 '!H14+'02'!H14+'03'!H14+'04'!H14+'05'!H14+'06'!H14+'07'!H14+'08'!H14+'09'!H14+'10'!H14+'11'!H14+'12'!H14+'13'!H14+'14'!H14+'15'!H14+'16'!H14+'17'!H14+'18'!H14+'19'!H14+'20'!H14+'21'!H14+'22'!H14+'23'!H14+'24'!H14+'25'!H14+'26'!H14+'27'!H14+'28'!H14+'29'!H14+'30'!H14+'31'!H14</f>
-        <v>2955327</v>
+        <v>3387263</v>
       </c>
       <c r="I14" s="13">
         <f>SUM(C14:H14)</f>
-        <v>107612202</v>
+        <v>144266463</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="12"/>
@@ -37310,15 +37310,15 @@
       </c>
       <c r="C15" s="15">
         <f>'01 '!C15+'02'!C15+'03'!C15+'04'!C15+'05'!C15+'06'!C15+'07'!C15+'08'!C15+'09'!C15+'10'!C15+'11'!C15+'12'!C15+'13'!C15+'14'!C15+'15'!C15+'16'!C15+'17'!C15+'18'!C15+'19'!C15+'20'!C15+'21'!C15+'22'!C15+'23'!C15+'24'!C15+'25'!C15+'26'!C15+'27'!C15+'28'!C15+'29'!C15+'30'!C15+'31'!C15</f>
-        <v>43868325</v>
+        <v>44818628</v>
       </c>
       <c r="D15" s="15">
         <f>'01 '!D15+'02'!D15+'03'!D15+'04'!D15+'05'!D15+'06'!D15+'07'!D15+'08'!D15+'09'!D15+'10'!D15+'11'!D15+'12'!D15+'13'!D15+'14'!D15+'15'!D15+'16'!D15+'17'!D15+'18'!D15+'19'!D15+'20'!D15+'21'!D15+'22'!D15+'23'!D15+'24'!D15+'25'!D15+'26'!D15+'27'!D15+'28'!D15+'29'!D15+'30'!D15+'31'!D15</f>
-        <v>287398</v>
+        <v>343405</v>
       </c>
       <c r="E15" s="15">
         <f>'01 '!E15+'02'!E15+'03'!E15+'04'!E15+'05'!E15+'06'!E15+'07'!E15+'08'!E15+'09'!E15+'10'!E15+'11'!E15+'12'!E15+'13'!E15+'14'!E15+'15'!E15+'16'!E15+'17'!E15+'18'!E15+'19'!E15+'20'!E15+'21'!E15+'22'!E15+'23'!E15+'24'!E15+'25'!E15+'26'!E15+'27'!E15+'28'!E15+'29'!E15+'30'!E15+'31'!E15</f>
-        <v>894739</v>
+        <v>948632</v>
       </c>
       <c r="F15" s="15">
         <f>'01 '!F15+'02'!F15+'03'!F15+'04'!F15+'05'!F15+'06'!F15+'07'!F15+'08'!F15+'09'!F15+'10'!F15+'11'!F15+'12'!F15+'13'!F15+'14'!F15+'15'!F15+'16'!F15+'17'!F15+'18'!F15+'19'!F15+'20'!F15+'21'!F15+'22'!F15+'23'!F15+'24'!F15+'25'!F15+'26'!F15+'27'!F15+'28'!F15+'29'!F15+'30'!F15+'31'!F15</f>
@@ -37330,11 +37330,11 @@
       </c>
       <c r="H15" s="15">
         <f>'01 '!H15+'02'!H15+'03'!H15+'04'!H15+'05'!H15+'06'!H15+'07'!H15+'08'!H15+'09'!H15+'10'!H15+'11'!H15+'12'!H15+'13'!H15+'14'!H15+'15'!H15+'16'!H15+'17'!H15+'18'!H15+'19'!H15+'20'!H15+'21'!H15+'22'!H15+'23'!H15+'24'!H15+'25'!H15+'26'!H15+'27'!H15+'28'!H15+'29'!H15+'30'!H15+'31'!H15</f>
-        <v>62269</v>
+        <v>74139</v>
       </c>
       <c r="I15" s="15">
         <f>SUM(C15:H15)</f>
-        <v>94640457</v>
+        <v>95712530</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="12"/>
@@ -37353,19 +37353,19 @@
       </c>
       <c r="C16" s="13">
         <f>'01 '!C16+'02'!C16+'03'!C16+'04'!C16+'05'!C16+'06'!C16+'07'!C16+'08'!C16+'09'!C16+'10'!C16+'11'!C16+'12'!C16+'13'!C16+'14'!C16+'15'!C16+'16'!C16+'17'!C16+'18'!C16+'19'!C16+'20'!C16+'21'!C16+'22'!C16+'23'!C16+'24'!C16+'25'!C16+'26'!C16+'27'!C16+'28'!C16+'29'!C16+'30'!C16+'31'!C16</f>
-        <v>1010150503</v>
+        <v>1437995987</v>
       </c>
       <c r="D16" s="13">
         <f>'01 '!D16+'02'!D16+'03'!D16+'04'!D16+'05'!D16+'06'!D16+'07'!D16+'08'!D16+'09'!D16+'10'!D16+'11'!D16+'12'!D16+'13'!D16+'14'!D16+'15'!D16+'16'!D16+'17'!D16+'18'!D16+'19'!D16+'20'!D16+'21'!D16+'22'!D16+'23'!D16+'24'!D16+'25'!D16+'26'!D16+'27'!D16+'28'!D16+'29'!D16+'30'!D16+'31'!D16</f>
-        <v>548799209</v>
+        <v>642319473</v>
       </c>
       <c r="E16" s="13">
         <f>'01 '!E16+'02'!E16+'03'!E16+'04'!E16+'05'!E16+'06'!E16+'07'!E16+'08'!E16+'09'!E16+'10'!E16+'11'!E16+'12'!E16+'13'!E16+'14'!E16+'15'!E16+'16'!E16+'17'!E16+'18'!E16+'19'!E16+'20'!E16+'21'!E16+'22'!E16+'23'!E16+'24'!E16+'25'!E16+'26'!E16+'27'!E16+'28'!E16+'29'!E16+'30'!E16+'31'!E16</f>
-        <v>43966624</v>
+        <v>57868319</v>
       </c>
       <c r="F16" s="13">
         <f>'01 '!F16+'02'!F16+'03'!F16+'04'!F16+'05'!F16+'06'!F16+'07'!F16+'08'!F16+'09'!F16+'10'!F16+'11'!F16+'12'!F16+'13'!F16+'14'!F16+'15'!F16+'16'!F16+'17'!F16+'18'!F16+'19'!F16+'20'!F16+'21'!F16+'22'!F16+'23'!F16+'24'!F16+'25'!F16+'26'!F16+'27'!F16+'28'!F16+'29'!F16+'30'!F16+'31'!F16</f>
-        <v>1654442</v>
+        <v>36144344</v>
       </c>
       <c r="G16" s="13">
         <f>'01 '!G16+'02'!G16+'03'!G16+'04'!G16+'05'!G16+'06'!G16+'07'!G16+'08'!G16+'09'!G16+'10'!G16+'11'!G16+'12'!G16+'13'!G16+'14'!G16+'15'!G16+'16'!G16+'17'!G16+'18'!G16+'19'!G16+'20'!G16+'21'!G16+'22'!G16+'23'!G16+'24'!G16+'25'!G16+'26'!G16+'27'!G16+'28'!G16+'29'!G16+'30'!G16+'31'!G16</f>
@@ -37373,11 +37373,11 @@
       </c>
       <c r="H16" s="13">
         <f>'01 '!H16+'02'!H16+'03'!H16+'04'!H16+'05'!H16+'06'!H16+'07'!H16+'08'!H16+'09'!H16+'10'!H16+'11'!H16+'12'!H16+'13'!H16+'14'!H16+'15'!H16+'16'!H16+'17'!H16+'18'!H16+'19'!H16+'20'!H16+'21'!H16+'22'!H16+'23'!H16+'24'!H16+'25'!H16+'26'!H16+'27'!H16+'28'!H16+'29'!H16+'30'!H16+'31'!H16</f>
-        <v>15909775</v>
+        <v>19199115</v>
       </c>
       <c r="I16" s="13">
         <f>SUM(C16:H16)</f>
-        <v>1620480553</v>
+        <v>2193527238</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="12"/>
@@ -37391,15 +37391,15 @@
       </c>
       <c r="C17" s="15">
         <f>'01 '!C17+'02'!C17+'03'!C17+'04'!C17+'05'!C17+'06'!C17+'07'!C17+'08'!C17+'09'!C17+'10'!C17+'11'!C17+'12'!C17+'13'!C17+'14'!C17+'15'!C17+'16'!C17+'17'!C17+'18'!C17+'19'!C17+'20'!C17+'21'!C17+'22'!C17+'23'!C17+'24'!C17+'25'!C17+'26'!C17+'27'!C17+'28'!C17+'29'!C17+'30'!C17+'31'!C17</f>
-        <v>48593</v>
+        <v>61387</v>
       </c>
       <c r="D17" s="15">
         <f>'01 '!D17+'02'!D17+'03'!D17+'04'!D17+'05'!D17+'06'!D17+'07'!D17+'08'!D17+'09'!D17+'10'!D17+'11'!D17+'12'!D17+'13'!D17+'14'!D17+'15'!D17+'16'!D17+'17'!D17+'18'!D17+'19'!D17+'20'!D17+'21'!D17+'22'!D17+'23'!D17+'24'!D17+'25'!D17+'26'!D17+'27'!D17+'28'!D17+'29'!D17+'30'!D17+'31'!D17</f>
-        <v>0</v>
+        <v>10281</v>
       </c>
       <c r="E17" s="15">
         <f>'01 '!E17+'02'!E17+'03'!E17+'04'!E17+'05'!E17+'06'!E17+'07'!E17+'08'!E17+'09'!E17+'10'!E17+'11'!E17+'12'!E17+'13'!E17+'14'!E17+'15'!E17+'16'!E17+'17'!E17+'18'!E17+'19'!E17+'20'!E17+'21'!E17+'22'!E17+'23'!E17+'24'!E17+'25'!E17+'26'!E17+'27'!E17+'28'!E17+'29'!E17+'30'!E17+'31'!E17</f>
-        <v>2861</v>
+        <v>3409</v>
       </c>
       <c r="F17" s="15">
         <f>'01 '!F17+'02'!F17+'03'!F17+'04'!F17+'05'!F17+'06'!F17+'07'!F17+'08'!F17+'09'!F17+'10'!F17+'11'!F17+'12'!F17+'13'!F17+'14'!F17+'15'!F17+'16'!F17+'17'!F17+'18'!F17+'19'!F17+'20'!F17+'21'!F17+'22'!F17+'23'!F17+'24'!F17+'25'!F17+'26'!F17+'27'!F17+'28'!F17+'29'!F17+'30'!F17+'31'!F17</f>
@@ -37411,11 +37411,11 @@
       </c>
       <c r="H17" s="15">
         <f>'01 '!H17+'02'!H17+'03'!H17+'04'!H17+'05'!H17+'06'!H17+'07'!H17+'08'!H17+'09'!H17+'10'!H17+'11'!H17+'12'!H17+'13'!H17+'14'!H17+'15'!H17+'16'!H17+'17'!H17+'18'!H17+'19'!H17+'20'!H17+'21'!H17+'22'!H17+'23'!H17+'24'!H17+'25'!H17+'26'!H17+'27'!H17+'28'!H17+'29'!H17+'30'!H17+'31'!H17</f>
-        <v>65870</v>
+        <v>88966</v>
       </c>
       <c r="I17" s="15">
         <f>SUM(C17:H17)</f>
-        <v>117324</v>
+        <v>164043</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="12"/>
@@ -37429,19 +37429,19 @@
       </c>
       <c r="C18" s="13">
         <f>'01 '!C18+'02'!C18+'03'!C18+'04'!C18+'05'!C18+'06'!C18+'07'!C18+'08'!C18+'09'!C18+'10'!C18+'11'!C18+'12'!C18+'13'!C18+'14'!C18+'15'!C18+'16'!C18+'17'!C18+'18'!C18+'19'!C18+'20'!C18+'21'!C18+'22'!C18+'23'!C18+'24'!C18+'25'!C18+'26'!C18+'27'!C18+'28'!C18+'29'!C18+'30'!C18+'31'!C18</f>
-        <v>1498106626</v>
+        <v>1828797574</v>
       </c>
       <c r="D18" s="13">
         <f>'01 '!D18+'02'!D18+'03'!D18+'04'!D18+'05'!D18+'06'!D18+'07'!D18+'08'!D18+'09'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
-        <v>491748779</v>
+        <v>602664054</v>
       </c>
       <c r="E18" s="13">
         <f>'01 '!E18+'02'!E18+'03'!E18+'04'!E18+'05'!E18+'06'!E18+'07'!E18+'08'!E18+'09'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
-        <v>69723258</v>
+        <v>84101974</v>
       </c>
       <c r="F18" s="13">
         <f>'01 '!F18+'02'!F18+'03'!F18+'04'!F18+'05'!F18+'06'!F18+'07'!F18+'08'!F18+'09'!F18+'10'!F18+'11'!F18+'12'!F18+'13'!F18+'14'!F18+'15'!F18+'16'!F18+'17'!F18+'18'!F18+'19'!F18+'20'!F18+'21'!F18+'22'!F18+'23'!F18+'24'!F18+'25'!F18+'26'!F18+'27'!F18+'28'!F18+'29'!F18+'30'!F18+'31'!F18</f>
-        <v>5271746</v>
+        <v>6324861</v>
       </c>
       <c r="G18" s="13">
         <f>'01 '!G18+'02'!G18+'03'!G18+'04'!G18+'05'!G18+'06'!G18+'07'!G18+'08'!G18+'09'!G18+'10'!G18+'11'!G18+'12'!G18+'13'!G18+'14'!G18+'15'!G18+'16'!G18+'17'!G18+'18'!G18+'19'!G18+'20'!G18+'21'!G18+'22'!G18+'23'!G18+'24'!G18+'25'!G18+'26'!G18+'27'!G18+'28'!G18+'29'!G18+'30'!G18+'31'!G18</f>
@@ -37449,11 +37449,11 @@
       </c>
       <c r="H18" s="13">
         <f>'01 '!H18+'02'!H18+'03'!H18+'04'!H18+'05'!H18+'06'!H18+'07'!H18+'08'!H18+'09'!H18+'10'!H18+'11'!H18+'12'!H18+'13'!H18+'14'!H18+'15'!H18+'16'!H18+'17'!H18+'18'!H18+'19'!H18+'20'!H18+'21'!H18+'22'!H18+'23'!H18+'24'!H18+'25'!H18+'26'!H18+'27'!H18+'28'!H18+'29'!H18+'30'!H18+'31'!H18</f>
-        <v>19638509</v>
+        <v>24902555</v>
       </c>
       <c r="I18" s="13">
         <f>SUM(C18:H18)</f>
-        <v>2084488918</v>
+        <v>2546791018</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="12"/>
@@ -37472,19 +37472,19 @@
       </c>
       <c r="C19" s="15">
         <f>'01 '!C19+'02'!C19+'03'!C19+'04'!C19+'05'!C19+'06'!C19+'07'!C19+'08'!C19+'09'!C19+'10'!C19+'11'!C19+'12'!C19+'13'!C19+'14'!C19+'15'!C19+'16'!C19+'17'!C19+'18'!C19+'19'!C19+'20'!C19+'21'!C19+'22'!C19+'23'!C19+'24'!C19+'25'!C19+'26'!C19+'27'!C19+'28'!C19+'29'!C19+'30'!C19+'31'!C19</f>
-        <v>227900830</v>
+        <v>294752999</v>
       </c>
       <c r="D19" s="15">
         <f>'01 '!D19+'02'!D19+'03'!D19+'04'!D19+'05'!D19+'06'!D19+'07'!D19+'08'!D19+'09'!D19+'10'!D19+'11'!D19+'12'!D19+'13'!D19+'14'!D19+'15'!D19+'16'!D19+'17'!D19+'18'!D19+'19'!D19+'20'!D19+'21'!D19+'22'!D19+'23'!D19+'24'!D19+'25'!D19+'26'!D19+'27'!D19+'28'!D19+'29'!D19+'30'!D19+'31'!D19</f>
-        <v>10978433</v>
+        <v>18595839</v>
       </c>
       <c r="E19" s="15">
         <f>'01 '!E19+'02'!E19+'03'!E19+'04'!E19+'05'!E19+'06'!E19+'07'!E19+'08'!E19+'09'!E19+'10'!E19+'11'!E19+'12'!E19+'13'!E19+'14'!E19+'15'!E19+'16'!E19+'17'!E19+'18'!E19+'19'!E19+'20'!E19+'21'!E19+'22'!E19+'23'!E19+'24'!E19+'25'!E19+'26'!E19+'27'!E19+'28'!E19+'29'!E19+'30'!E19+'31'!E19</f>
-        <v>6022818</v>
+        <v>7664091</v>
       </c>
       <c r="F19" s="15">
         <f>'01 '!F19+'02'!F19+'03'!F19+'04'!F19+'05'!F19+'06'!F19+'07'!F19+'08'!F19+'09'!F19+'10'!F19+'11'!F19+'12'!F19+'13'!F19+'14'!F19+'15'!F19+'16'!F19+'17'!F19+'18'!F19+'19'!F19+'20'!F19+'21'!F19+'22'!F19+'23'!F19+'24'!F19+'25'!F19+'26'!F19+'27'!F19+'28'!F19+'29'!F19+'30'!F19+'31'!F19</f>
-        <v>59651225</v>
+        <v>75902512</v>
       </c>
       <c r="G19" s="15">
         <f>'01 '!G19+'02'!G19+'03'!G19+'04'!G19+'05'!G19+'06'!G19+'07'!G19+'08'!G19+'09'!G19+'10'!G19+'11'!G19+'12'!G19+'13'!G19+'14'!G19+'15'!G19+'16'!G19+'17'!G19+'18'!G19+'19'!G19+'20'!G19+'21'!G19+'22'!G19+'23'!G19+'24'!G19+'25'!G19+'26'!G19+'27'!G19+'28'!G19+'29'!G19+'30'!G19+'31'!G19</f>
@@ -37492,11 +37492,11 @@
       </c>
       <c r="H19" s="15">
         <f>'01 '!H19+'02'!H19+'03'!H19+'04'!H19+'05'!H19+'06'!H19+'07'!H19+'08'!H19+'09'!H19+'10'!H19+'11'!H19+'12'!H19+'13'!H19+'14'!H19+'15'!H19+'16'!H19+'17'!H19+'18'!H19+'19'!H19+'20'!H19+'21'!H19+'22'!H19+'23'!H19+'24'!H19+'25'!H19+'26'!H19+'27'!H19+'28'!H19+'29'!H19+'30'!H19+'31'!H19</f>
-        <v>2534888</v>
+        <v>3690301</v>
       </c>
       <c r="I19" s="15">
         <f>SUM(C19:H19)</f>
-        <v>307090694</v>
+        <v>400608242</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="12"/>
@@ -37515,15 +37515,15 @@
       </c>
       <c r="C20" s="13">
         <f>'01 '!C20+'02'!C20+'03'!C20+'04'!C20+'05'!C20+'06'!C20+'07'!C20+'08'!C20+'09'!C20+'10'!C20+'11'!C20+'12'!C20+'13'!C20+'14'!C20+'15'!C20+'16'!C20+'17'!C20+'18'!C20+'19'!C20+'20'!C20+'21'!C20+'22'!C20+'23'!C20+'24'!C20+'25'!C20+'26'!C20+'27'!C20+'28'!C20+'29'!C20+'30'!C20+'31'!C20</f>
-        <v>134244987</v>
+        <v>138551674</v>
       </c>
       <c r="D20" s="13">
         <f>'01 '!D20+'02'!D20+'03'!D20+'04'!D20+'05'!D20+'06'!D20+'07'!D20+'08'!D20+'09'!D20+'10'!D20+'11'!D20+'12'!D20+'13'!D20+'14'!D20+'15'!D20+'16'!D20+'17'!D20+'18'!D20+'19'!D20+'20'!D20+'21'!D20+'22'!D20+'23'!D20+'24'!D20+'25'!D20+'26'!D20+'27'!D20+'28'!D20+'29'!D20+'30'!D20+'31'!D20</f>
-        <v>109106342</v>
+        <v>109432494</v>
       </c>
       <c r="E20" s="13">
         <f>'01 '!E20+'02'!E20+'03'!E20+'04'!E20+'05'!E20+'06'!E20+'07'!E20+'08'!E20+'09'!E20+'10'!E20+'11'!E20+'12'!E20+'13'!E20+'14'!E20+'15'!E20+'16'!E20+'17'!E20+'18'!E20+'19'!E20+'20'!E20+'21'!E20+'22'!E20+'23'!E20+'24'!E20+'25'!E20+'26'!E20+'27'!E20+'28'!E20+'29'!E20+'30'!E20+'31'!E20</f>
-        <v>5830616</v>
+        <v>5879271</v>
       </c>
       <c r="F20" s="13">
         <f>'01 '!F20+'02'!F20+'03'!F20+'04'!F20+'05'!F20+'06'!F20+'07'!F20+'08'!F20+'09'!F20+'10'!F20+'11'!F20+'12'!F20+'13'!F20+'14'!F20+'15'!F20+'16'!F20+'17'!F20+'18'!F20+'19'!F20+'20'!F20+'21'!F20+'22'!F20+'23'!F20+'24'!F20+'25'!F20+'26'!F20+'27'!F20+'28'!F20+'29'!F20+'30'!F20+'31'!F20</f>
@@ -37535,11 +37535,11 @@
       </c>
       <c r="H20" s="13">
         <f>'01 '!H20+'02'!H20+'03'!H20+'04'!H20+'05'!H20+'06'!H20+'07'!H20+'08'!H20+'09'!H20+'10'!H20+'11'!H20+'12'!H20+'13'!H20+'14'!H20+'15'!H20+'16'!H20+'17'!H20+'18'!H20+'19'!H20+'20'!H20+'21'!H20+'22'!H20+'23'!H20+'24'!H20+'25'!H20+'26'!H20+'27'!H20+'28'!H20+'29'!H20+'30'!H20+'31'!H20</f>
-        <v>60455</v>
+        <v>79115</v>
       </c>
       <c r="I20" s="13">
         <f>SUM(C20:H20)</f>
-        <v>267476999</v>
+        <v>272177153</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="12"/>
@@ -37553,19 +37553,19 @@
       </c>
       <c r="C21" s="15">
         <f>'01 '!C21+'02'!C21+'03'!C21+'04'!C21+'05'!C21+'06'!C21+'07'!C21+'08'!C21+'09'!C21+'10'!C21+'11'!C21+'12'!C21+'13'!C21+'14'!C21+'15'!C21+'16'!C21+'17'!C21+'18'!C21+'19'!C21+'20'!C21+'21'!C21+'22'!C21+'23'!C21+'24'!C21+'25'!C21+'26'!C21+'27'!C21+'28'!C21+'29'!C21+'30'!C21+'31'!C21</f>
-        <v>212328419</v>
+        <v>255490182</v>
       </c>
       <c r="D21" s="15">
         <f>'01 '!D21+'02'!D21+'03'!D21+'04'!D21+'05'!D21+'06'!D21+'07'!D21+'08'!D21+'09'!D21+'10'!D21+'11'!D21+'12'!D21+'13'!D21+'14'!D21+'15'!D21+'16'!D21+'17'!D21+'18'!D21+'19'!D21+'20'!D21+'21'!D21+'22'!D21+'23'!D21+'24'!D21+'25'!D21+'26'!D21+'27'!D21+'28'!D21+'29'!D21+'30'!D21+'31'!D21</f>
-        <v>17021921</v>
+        <v>23076679</v>
       </c>
       <c r="E21" s="15">
         <f>'01 '!E21+'02'!E21+'03'!E21+'04'!E21+'05'!E21+'06'!E21+'07'!E21+'08'!E21+'09'!E21+'10'!E21+'11'!E21+'12'!E21+'13'!E21+'14'!E21+'15'!E21+'16'!E21+'17'!E21+'18'!E21+'19'!E21+'20'!E21+'21'!E21+'22'!E21+'23'!E21+'24'!E21+'25'!E21+'26'!E21+'27'!E21+'28'!E21+'29'!E21+'30'!E21+'31'!E21</f>
-        <v>2390668</v>
+        <v>3602058</v>
       </c>
       <c r="F21" s="15">
         <f>'01 '!F21+'02'!F21+'03'!F21+'04'!F21+'05'!F21+'06'!F21+'07'!F21+'08'!F21+'09'!F21+'10'!F21+'11'!F21+'12'!F21+'13'!F21+'14'!F21+'15'!F21+'16'!F21+'17'!F21+'18'!F21+'19'!F21+'20'!F21+'21'!F21+'22'!F21+'23'!F21+'24'!F21+'25'!F21+'26'!F21+'27'!F21+'28'!F21+'29'!F21+'30'!F21+'31'!F21</f>
-        <v>41012419</v>
+        <v>41656843</v>
       </c>
       <c r="G21" s="15">
         <f>'01 '!G21+'02'!G21+'03'!G21+'04'!G21+'05'!G21+'06'!G21+'07'!G21+'08'!G21+'09'!G21+'10'!G21+'11'!G21+'12'!G21+'13'!G21+'14'!G21+'15'!G21+'16'!G21+'17'!G21+'18'!G21+'19'!G21+'20'!G21+'21'!G21+'22'!G21+'23'!G21+'24'!G21+'25'!G21+'26'!G21+'27'!G21+'28'!G21+'29'!G21+'30'!G21+'31'!G21</f>
@@ -37573,11 +37573,11 @@
       </c>
       <c r="H21" s="15">
         <f>'01 '!H21+'02'!H21+'03'!H21+'04'!H21+'05'!H21+'06'!H21+'07'!H21+'08'!H21+'09'!H21+'10'!H21+'11'!H21+'12'!H21+'13'!H21+'14'!H21+'15'!H21+'16'!H21+'17'!H21+'18'!H21+'19'!H21+'20'!H21+'21'!H21+'22'!H21+'23'!H21+'24'!H21+'25'!H21+'26'!H21+'27'!H21+'28'!H21+'29'!H21+'30'!H21+'31'!H21</f>
-        <v>2017309</v>
+        <v>2774889</v>
       </c>
       <c r="I21" s="15">
         <f>SUM(C21:H21)</f>
-        <v>274770736</v>
+        <v>326600651</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="12"/>
@@ -37596,19 +37596,19 @@
       </c>
       <c r="C22" s="13">
         <f>'01 '!C22+'02'!C22+'03'!C22+'04'!C22+'05'!C22+'06'!C22+'07'!C22+'08'!C22+'09'!C22+'10'!C22+'11'!C22+'12'!C22+'13'!C22+'14'!C22+'15'!C22+'16'!C22+'17'!C22+'18'!C22+'19'!C22+'20'!C22+'21'!C22+'22'!C22+'23'!C22+'24'!C22+'25'!C22+'26'!C22+'27'!C22+'28'!C22+'29'!C22+'30'!C22+'31'!C22</f>
-        <v>59809889</v>
+        <v>85109912</v>
       </c>
       <c r="D22" s="13">
         <f>'01 '!D22+'02'!D22+'03'!D22+'04'!D22+'05'!D22+'06'!D22+'07'!D22+'08'!D22+'09'!D22+'10'!D22+'11'!D22+'12'!D22+'13'!D22+'14'!D22+'15'!D22+'16'!D22+'17'!D22+'18'!D22+'19'!D22+'20'!D22+'21'!D22+'22'!D22+'23'!D22+'24'!D22+'25'!D22+'26'!D22+'27'!D22+'28'!D22+'29'!D22+'30'!D22+'31'!D22</f>
-        <v>19425481</v>
+        <v>28068706</v>
       </c>
       <c r="E22" s="13">
         <f>'01 '!E22+'02'!E22+'03'!E22+'04'!E22+'05'!E22+'06'!E22+'07'!E22+'08'!E22+'09'!E22+'10'!E22+'11'!E22+'12'!E22+'13'!E22+'14'!E22+'15'!E22+'16'!E22+'17'!E22+'18'!E22+'19'!E22+'20'!E22+'21'!E22+'22'!E22+'23'!E22+'24'!E22+'25'!E22+'26'!E22+'27'!E22+'28'!E22+'29'!E22+'30'!E22+'31'!E22</f>
-        <v>2147848</v>
+        <v>2867986</v>
       </c>
       <c r="F22" s="13">
         <f>'01 '!F22+'02'!F22+'03'!F22+'04'!F22+'05'!F22+'06'!F22+'07'!F22+'08'!F22+'09'!F22+'10'!F22+'11'!F22+'12'!F22+'13'!F22+'14'!F22+'15'!F22+'16'!F22+'17'!F22+'18'!F22+'19'!F22+'20'!F22+'21'!F22+'22'!F22+'23'!F22+'24'!F22+'25'!F22+'26'!F22+'27'!F22+'28'!F22+'29'!F22+'30'!F22+'31'!F22</f>
-        <v>29775987</v>
+        <v>50257338</v>
       </c>
       <c r="G22" s="13">
         <f>'01 '!G22+'02'!G22+'03'!G22+'04'!G22+'05'!G22+'06'!G22+'07'!G22+'08'!G22+'09'!G22+'10'!G22+'11'!G22+'12'!G22+'13'!G22+'14'!G22+'15'!G22+'16'!G22+'17'!G22+'18'!G22+'19'!G22+'20'!G22+'21'!G22+'22'!G22+'23'!G22+'24'!G22+'25'!G22+'26'!G22+'27'!G22+'28'!G22+'29'!G22+'30'!G22+'31'!G22</f>
@@ -37616,11 +37616,11 @@
       </c>
       <c r="H22" s="13">
         <f>'01 '!H22+'02'!H22+'03'!H22+'04'!H22+'05'!H22+'06'!H22+'07'!H22+'08'!H22+'09'!H22+'10'!H22+'11'!H22+'12'!H22+'13'!H22+'14'!H22+'15'!H22+'16'!H22+'17'!H22+'18'!H22+'19'!H22+'20'!H22+'21'!H22+'22'!H22+'23'!H22+'24'!H22+'25'!H22+'26'!H22+'27'!H22+'28'!H22+'29'!H22+'30'!H22+'31'!H22</f>
-        <v>464367</v>
+        <v>586755</v>
       </c>
       <c r="I22" s="13">
         <f>SUM(C22:H22)</f>
-        <v>111623572</v>
+        <v>166890697</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="12"/>
@@ -37639,15 +37639,15 @@
       </c>
       <c r="C23" s="15">
         <f>'01 '!C23+'02'!C23+'03'!C23+'04'!C23+'05'!C23+'06'!C23+'07'!C23+'08'!C23+'09'!C23+'10'!C23+'11'!C23+'12'!C23+'13'!C23+'14'!C23+'15'!C23+'16'!C23+'17'!C23+'18'!C23+'19'!C23+'20'!C23+'21'!C23+'22'!C23+'23'!C23+'24'!C23+'25'!C23+'26'!C23+'27'!C23+'28'!C23+'29'!C23+'30'!C23+'31'!C23</f>
-        <v>1665872</v>
+        <v>11999766</v>
       </c>
       <c r="D23" s="15">
         <f>'01 '!D23+'02'!D23+'03'!D23+'04'!D23+'05'!D23+'06'!D23+'07'!D23+'08'!D23+'09'!D23+'10'!D23+'11'!D23+'12'!D23+'13'!D23+'14'!D23+'15'!D23+'16'!D23+'17'!D23+'18'!D23+'19'!D23+'20'!D23+'21'!D23+'22'!D23+'23'!D23+'24'!D23+'25'!D23+'26'!D23+'27'!D23+'28'!D23+'29'!D23+'30'!D23+'31'!D23</f>
-        <v>213139</v>
+        <v>668059</v>
       </c>
       <c r="E23" s="15">
         <f>'01 '!E23+'02'!E23+'03'!E23+'04'!E23+'05'!E23+'06'!E23+'07'!E23+'08'!E23+'09'!E23+'10'!E23+'11'!E23+'12'!E23+'13'!E23+'14'!E23+'15'!E23+'16'!E23+'17'!E23+'18'!E23+'19'!E23+'20'!E23+'21'!E23+'22'!E23+'23'!E23+'24'!E23+'25'!E23+'26'!E23+'27'!E23+'28'!E23+'29'!E23+'30'!E23+'31'!E23</f>
-        <v>25145</v>
+        <v>122796</v>
       </c>
       <c r="F23" s="15">
         <f>'01 '!F23+'02'!F23+'03'!F23+'04'!F23+'05'!F23+'06'!F23+'07'!F23+'08'!F23+'09'!F23+'10'!F23+'11'!F23+'12'!F23+'13'!F23+'14'!F23+'15'!F23+'16'!F23+'17'!F23+'18'!F23+'19'!F23+'20'!F23+'21'!F23+'22'!F23+'23'!F23+'24'!F23+'25'!F23+'26'!F23+'27'!F23+'28'!F23+'29'!F23+'30'!F23+'31'!F23</f>
@@ -37659,11 +37659,11 @@
       </c>
       <c r="H23" s="15">
         <f>'01 '!H23+'02'!H23+'03'!H23+'04'!H23+'05'!H23+'06'!H23+'07'!H23+'08'!H23+'09'!H23+'10'!H23+'11'!H23+'12'!H23+'13'!H23+'14'!H23+'15'!H23+'16'!H23+'17'!H23+'18'!H23+'19'!H23+'20'!H23+'21'!H23+'22'!H23+'23'!H23+'24'!H23+'25'!H23+'26'!H23+'27'!H23+'28'!H23+'29'!H23+'30'!H23+'31'!H23</f>
-        <v>5700</v>
+        <v>10920</v>
       </c>
       <c r="I23" s="15">
         <f>SUM(C23:H23)</f>
-        <v>1909856</v>
+        <v>12801541</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="12"/>
@@ -37677,19 +37677,19 @@
       </c>
       <c r="C24" s="13">
         <f>'01 '!C24+'02'!C24+'03'!C24+'04'!C24+'05'!C24+'06'!C24+'07'!C24+'08'!C24+'09'!C24+'10'!C24+'11'!C24+'12'!C24+'13'!C24+'14'!C24+'15'!C24+'16'!C24+'17'!C24+'18'!C24+'19'!C24+'20'!C24+'21'!C24+'22'!C24+'23'!C24+'24'!C24+'25'!C24+'26'!C24+'27'!C24+'28'!C24+'29'!C24+'30'!C24+'31'!C24</f>
-        <v>89916568</v>
+        <v>862524170</v>
       </c>
       <c r="D24" s="13">
         <f>'01 '!D24+'02'!D24+'03'!D24+'04'!D24+'05'!D24+'06'!D24+'07'!D24+'08'!D24+'09'!D24+'10'!D24+'11'!D24+'12'!D24+'13'!D24+'14'!D24+'15'!D24+'16'!D24+'17'!D24+'18'!D24+'19'!D24+'20'!D24+'21'!D24+'22'!D24+'23'!D24+'24'!D24+'25'!D24+'26'!D24+'27'!D24+'28'!D24+'29'!D24+'30'!D24+'31'!D24</f>
-        <v>10081187</v>
+        <v>12220817</v>
       </c>
       <c r="E24" s="13">
         <f>'01 '!E24+'02'!E24+'03'!E24+'04'!E24+'05'!E24+'06'!E24+'07'!E24+'08'!E24+'09'!E24+'10'!E24+'11'!E24+'12'!E24+'13'!E24+'14'!E24+'15'!E24+'16'!E24+'17'!E24+'18'!E24+'19'!E24+'20'!E24+'21'!E24+'22'!E24+'23'!E24+'24'!E24+'25'!E24+'26'!E24+'27'!E24+'28'!E24+'29'!E24+'30'!E24+'31'!E24</f>
-        <v>2471212</v>
+        <v>3421025</v>
       </c>
       <c r="F24" s="13">
         <f>'01 '!F24+'02'!F24+'03'!F24+'04'!F24+'05'!F24+'06'!F24+'07'!F24+'08'!F24+'09'!F24+'10'!F24+'11'!F24+'12'!F24+'13'!F24+'14'!F24+'15'!F24+'16'!F24+'17'!F24+'18'!F24+'19'!F24+'20'!F24+'21'!F24+'22'!F24+'23'!F24+'24'!F24+'25'!F24+'26'!F24+'27'!F24+'28'!F24+'29'!F24+'30'!F24+'31'!F24</f>
-        <v>31079429</v>
+        <v>31610939</v>
       </c>
       <c r="G24" s="13">
         <f>'01 '!G24+'02'!G24+'03'!G24+'04'!G24+'05'!G24+'06'!G24+'07'!G24+'08'!G24+'09'!G24+'10'!G24+'11'!G24+'12'!G24+'13'!G24+'14'!G24+'15'!G24+'16'!G24+'17'!G24+'18'!G24+'19'!G24+'20'!G24+'21'!G24+'22'!G24+'23'!G24+'24'!G24+'25'!G24+'26'!G24+'27'!G24+'28'!G24+'29'!G24+'30'!G24+'31'!G24</f>
@@ -37697,11 +37697,11 @@
       </c>
       <c r="H24" s="13">
         <f>'01 '!H24+'02'!H24+'03'!H24+'04'!H24+'05'!H24+'06'!H24+'07'!H24+'08'!H24+'09'!H24+'10'!H24+'11'!H24+'12'!H24+'13'!H24+'14'!H24+'15'!H24+'16'!H24+'17'!H24+'18'!H24+'19'!H24+'20'!H24+'21'!H24+'22'!H24+'23'!H24+'24'!H24+'25'!H24+'26'!H24+'27'!H24+'28'!H24+'29'!H24+'30'!H24+'31'!H24</f>
-        <v>1556674</v>
+        <v>2041263</v>
       </c>
       <c r="I24" s="13">
         <f>SUM(C24:H24)</f>
-        <v>135107570</v>
+        <v>911820714</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="12"/>
@@ -37720,19 +37720,19 @@
       </c>
       <c r="C25" s="15">
         <f>'01 '!C25+'02'!C25+'03'!C25+'04'!C25+'05'!C25+'06'!C25+'07'!C25+'08'!C25+'09'!C25+'10'!C25+'11'!C25+'12'!C25+'13'!C25+'14'!C25+'15'!C25+'16'!C25+'17'!C25+'18'!C25+'19'!C25+'20'!C25+'21'!C25+'22'!C25+'23'!C25+'24'!C25+'25'!C25+'26'!C25+'27'!C25+'28'!C25+'29'!C25+'30'!C25+'31'!C25</f>
-        <v>1989242402</v>
+        <v>2861020129</v>
       </c>
       <c r="D25" s="15">
         <f>'01 '!D25+'02'!D25+'03'!D25+'04'!D25+'05'!D25+'06'!D25+'07'!D25+'08'!D25+'09'!D25+'10'!D25+'11'!D25+'12'!D25+'13'!D25+'14'!D25+'15'!D25+'16'!D25+'17'!D25+'18'!D25+'19'!D25+'20'!D25+'21'!D25+'22'!D25+'23'!D25+'24'!D25+'25'!D25+'26'!D25+'27'!D25+'28'!D25+'29'!D25+'30'!D25+'31'!D25</f>
-        <v>171167291</v>
+        <v>237351571</v>
       </c>
       <c r="E25" s="15">
         <f>'01 '!E25+'02'!E25+'03'!E25+'04'!E25+'05'!E25+'06'!E25+'07'!E25+'08'!E25+'09'!E25+'10'!E25+'11'!E25+'12'!E25+'13'!E25+'14'!E25+'15'!E25+'16'!E25+'17'!E25+'18'!E25+'19'!E25+'20'!E25+'21'!E25+'22'!E25+'23'!E25+'24'!E25+'25'!E25+'26'!E25+'27'!E25+'28'!E25+'29'!E25+'30'!E25+'31'!E25</f>
-        <v>39202661</v>
+        <v>52661997</v>
       </c>
       <c r="F25" s="15">
         <f>'01 '!F25+'02'!F25+'03'!F25+'04'!F25+'05'!F25+'06'!F25+'07'!F25+'08'!F25+'09'!F25+'10'!F25+'11'!F25+'12'!F25+'13'!F25+'14'!F25+'15'!F25+'16'!F25+'17'!F25+'18'!F25+'19'!F25+'20'!F25+'21'!F25+'22'!F25+'23'!F25+'24'!F25+'25'!F25+'26'!F25+'27'!F25+'28'!F25+'29'!F25+'30'!F25+'31'!F25</f>
-        <v>275757808</v>
+        <v>716815202</v>
       </c>
       <c r="G25" s="15">
         <f>'01 '!G25+'02'!G25+'03'!G25+'04'!G25+'05'!G25+'06'!G25+'07'!G25+'08'!G25+'09'!G25+'10'!G25+'11'!G25+'12'!G25+'13'!G25+'14'!G25+'15'!G25+'16'!G25+'17'!G25+'18'!G25+'19'!G25+'20'!G25+'21'!G25+'22'!G25+'23'!G25+'24'!G25+'25'!G25+'26'!G25+'27'!G25+'28'!G25+'29'!G25+'30'!G25+'31'!G25</f>
@@ -37740,11 +37740,11 @@
       </c>
       <c r="H25" s="15">
         <f>'01 '!H25+'02'!H25+'03'!H25+'04'!H25+'05'!H25+'06'!H25+'07'!H25+'08'!H25+'09'!H25+'10'!H25+'11'!H25+'12'!H25+'13'!H25+'14'!H25+'15'!H25+'16'!H25+'17'!H25+'18'!H25+'19'!H25+'20'!H25+'21'!H25+'22'!H25+'23'!H25+'24'!H25+'25'!H25+'26'!H25+'27'!H25+'28'!H25+'29'!H25+'30'!H25+'31'!H25</f>
-        <v>19045639</v>
+        <v>26558880</v>
       </c>
       <c r="I25" s="15">
         <f>SUM(C25:H25)</f>
-        <v>2494429990</v>
+        <v>3894421968</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="12"/>
@@ -37763,15 +37763,15 @@
       </c>
       <c r="C26" s="13">
         <f>'01 '!C26+'02'!C26+'03'!C26+'04'!C26+'05'!C26+'06'!C26+'07'!C26+'08'!C26+'09'!C26+'10'!C26+'11'!C26+'12'!C26+'13'!C26+'14'!C26+'15'!C26+'16'!C26+'17'!C26+'18'!C26+'19'!C26+'20'!C26+'21'!C26+'22'!C26+'23'!C26+'24'!C26+'25'!C26+'26'!C26+'27'!C26+'28'!C26+'29'!C26+'30'!C26+'31'!C26</f>
-        <v>533253</v>
+        <v>5520071</v>
       </c>
       <c r="D26" s="13">
         <f>'01 '!D26+'02'!D26+'03'!D26+'04'!D26+'05'!D26+'06'!D26+'07'!D26+'08'!D26+'09'!D26+'10'!D26+'11'!D26+'12'!D26+'13'!D26+'14'!D26+'15'!D26+'16'!D26+'17'!D26+'18'!D26+'19'!D26+'20'!D26+'21'!D26+'22'!D26+'23'!D26+'24'!D26+'25'!D26+'26'!D26+'27'!D26+'28'!D26+'29'!D26+'30'!D26+'31'!D26</f>
-        <v>30571</v>
+        <v>35194</v>
       </c>
       <c r="E26" s="13">
         <f>'01 '!E26+'02'!E26+'03'!E26+'04'!E26+'05'!E26+'06'!E26+'07'!E26+'08'!E26+'09'!E26+'10'!E26+'11'!E26+'12'!E26+'13'!E26+'14'!E26+'15'!E26+'16'!E26+'17'!E26+'18'!E26+'19'!E26+'20'!E26+'21'!E26+'22'!E26+'23'!E26+'24'!E26+'25'!E26+'26'!E26+'27'!E26+'28'!E26+'29'!E26+'30'!E26+'31'!E26</f>
-        <v>81147</v>
+        <v>95633</v>
       </c>
       <c r="F26" s="13">
         <f>'01 '!F26+'02'!F26+'03'!F26+'04'!F26+'05'!F26+'06'!F26+'07'!F26+'08'!F26+'09'!F26+'10'!F26+'11'!F26+'12'!F26+'13'!F26+'14'!F26+'15'!F26+'16'!F26+'17'!F26+'18'!F26+'19'!F26+'20'!F26+'21'!F26+'22'!F26+'23'!F26+'24'!F26+'25'!F26+'26'!F26+'27'!F26+'28'!F26+'29'!F26+'30'!F26+'31'!F26</f>
@@ -37783,11 +37783,11 @@
       </c>
       <c r="H26" s="13">
         <f>'01 '!H26+'02'!H26+'03'!H26+'04'!H26+'05'!H26+'06'!H26+'07'!H26+'08'!H26+'09'!H26+'10'!H26+'11'!H26+'12'!H26+'13'!H26+'14'!H26+'15'!H26+'16'!H26+'17'!H26+'18'!H26+'19'!H26+'20'!H26+'21'!H26+'22'!H26+'23'!H26+'24'!H26+'25'!H26+'26'!H26+'27'!H26+'28'!H26+'29'!H26+'30'!H26+'31'!H26</f>
-        <v>89140</v>
+        <v>120206</v>
       </c>
       <c r="I26" s="13">
         <f>SUM(C26:H26)</f>
-        <v>734111</v>
+        <v>5771104</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="12"/>
@@ -37801,7 +37801,7 @@
       </c>
       <c r="C27" s="15">
         <f>'01 '!C27+'02'!C27+'03'!C27+'04'!C27+'05'!C27+'06'!C27+'07'!C27+'08'!C27+'09'!C27+'10'!C27+'11'!C27+'12'!C27+'13'!C27+'14'!C27+'15'!C27+'16'!C27+'17'!C27+'18'!C27+'19'!C27+'20'!C27+'21'!C27+'22'!C27+'23'!C27+'24'!C27+'25'!C27+'26'!C27+'27'!C27+'28'!C27+'29'!C27+'30'!C27+'31'!C27</f>
-        <v>2376452</v>
+        <v>3307354</v>
       </c>
       <c r="D27" s="15">
         <f>'01 '!D27+'02'!D27+'03'!D27+'04'!D27+'05'!D27+'06'!D27+'07'!D27+'08'!D27+'09'!D27+'10'!D27+'11'!D27+'12'!D27+'13'!D27+'14'!D27+'15'!D27+'16'!D27+'17'!D27+'18'!D27+'19'!D27+'20'!D27+'21'!D27+'22'!D27+'23'!D27+'24'!D27+'25'!D27+'26'!D27+'27'!D27+'28'!D27+'29'!D27+'30'!D27+'31'!D27</f>
@@ -37821,11 +37821,11 @@
       </c>
       <c r="H27" s="15">
         <f>'01 '!H27+'02'!H27+'03'!H27+'04'!H27+'05'!H27+'06'!H27+'07'!H27+'08'!H27+'09'!H27+'10'!H27+'11'!H27+'12'!H27+'13'!H27+'14'!H27+'15'!H27+'16'!H27+'17'!H27+'18'!H27+'19'!H27+'20'!H27+'21'!H27+'22'!H27+'23'!H27+'24'!H27+'25'!H27+'26'!H27+'27'!H27+'28'!H27+'29'!H27+'30'!H27+'31'!H27</f>
-        <v>76370</v>
+        <v>96510</v>
       </c>
       <c r="I27" s="15">
         <f>SUM(C27:H27)</f>
-        <v>2469885</v>
+        <v>3420927</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="12"/>
@@ -37844,19 +37844,19 @@
       </c>
       <c r="C28" s="13">
         <f>'01 '!C28+'02'!C28+'03'!C28+'04'!C28+'05'!C28+'06'!C28+'07'!C28+'08'!C28+'09'!C28+'10'!C28+'11'!C28+'12'!C28+'13'!C28+'14'!C28+'15'!C28+'16'!C28+'17'!C28+'18'!C28+'19'!C28+'20'!C28+'21'!C28+'22'!C28+'23'!C28+'24'!C28+'25'!C28+'26'!C28+'27'!C28+'28'!C28+'29'!C28+'30'!C28+'31'!C28</f>
-        <v>251525084</v>
+        <v>293887743</v>
       </c>
       <c r="D28" s="13">
         <f>'01 '!D28+'02'!D28+'03'!D28+'04'!D28+'05'!D28+'06'!D28+'07'!D28+'08'!D28+'09'!D28+'10'!D28+'11'!D28+'12'!D28+'13'!D28+'14'!D28+'15'!D28+'16'!D28+'17'!D28+'18'!D28+'19'!D28+'20'!D28+'21'!D28+'22'!D28+'23'!D28+'24'!D28+'25'!D28+'26'!D28+'27'!D28+'28'!D28+'29'!D28+'30'!D28+'31'!D28</f>
-        <v>3167937</v>
+        <v>4753176</v>
       </c>
       <c r="E28" s="13">
         <f>'01 '!E28+'02'!E28+'03'!E28+'04'!E28+'05'!E28+'06'!E28+'07'!E28+'08'!E28+'09'!E28+'10'!E28+'11'!E28+'12'!E28+'13'!E28+'14'!E28+'15'!E28+'16'!E28+'17'!E28+'18'!E28+'19'!E28+'20'!E28+'21'!E28+'22'!E28+'23'!E28+'24'!E28+'25'!E28+'26'!E28+'27'!E28+'28'!E28+'29'!E28+'30'!E28+'31'!E28</f>
-        <v>1256182</v>
+        <v>1779628</v>
       </c>
       <c r="F28" s="13">
         <f>'01 '!F28+'02'!F28+'03'!F28+'04'!F28+'05'!F28+'06'!F28+'07'!F28+'08'!F28+'09'!F28+'10'!F28+'11'!F28+'12'!F28+'13'!F28+'14'!F28+'15'!F28+'16'!F28+'17'!F28+'18'!F28+'19'!F28+'20'!F28+'21'!F28+'22'!F28+'23'!F28+'24'!F28+'25'!F28+'26'!F28+'27'!F28+'28'!F28+'29'!F28+'30'!F28+'31'!F28</f>
-        <v>4362141</v>
+        <v>17241447</v>
       </c>
       <c r="G28" s="13">
         <f>'01 '!G28+'02'!G28+'03'!G28+'04'!G28+'05'!G28+'06'!G28+'07'!G28+'08'!G28+'09'!G28+'10'!G28+'11'!G28+'12'!G28+'13'!G28+'14'!G28+'15'!G28+'16'!G28+'17'!G28+'18'!G28+'19'!G28+'20'!G28+'21'!G28+'22'!G28+'23'!G28+'24'!G28+'25'!G28+'26'!G28+'27'!G28+'28'!G28+'29'!G28+'30'!G28+'31'!G28</f>
@@ -37864,11 +37864,11 @@
       </c>
       <c r="H28" s="13">
         <f>'01 '!H28+'02'!H28+'03'!H28+'04'!H28+'05'!H28+'06'!H28+'07'!H28+'08'!H28+'09'!H28+'10'!H28+'11'!H28+'12'!H28+'13'!H28+'14'!H28+'15'!H28+'16'!H28+'17'!H28+'18'!H28+'19'!H28+'20'!H28+'21'!H28+'22'!H28+'23'!H28+'24'!H28+'25'!H28+'26'!H28+'27'!H28+'28'!H28+'29'!H28+'30'!H28+'31'!H28</f>
-        <v>1041866</v>
+        <v>1321793</v>
       </c>
       <c r="I28" s="13">
         <f>SUM(C28:H28)</f>
-        <v>261355710</v>
+        <v>318986287</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="12"/>
@@ -37887,19 +37887,19 @@
       </c>
       <c r="C29" s="15">
         <f>'01 '!C29+'02'!C29+'03'!C29+'04'!C29+'05'!C29+'06'!C29+'07'!C29+'08'!C29+'09'!C29+'10'!C29+'11'!C29+'12'!C29+'13'!C29+'14'!C29+'15'!C29+'16'!C29+'17'!C29+'18'!C29+'19'!C29+'20'!C29+'21'!C29+'22'!C29+'23'!C29+'24'!C29+'25'!C29+'26'!C29+'27'!C29+'28'!C29+'29'!C29+'30'!C29+'31'!C29</f>
-        <v>118723424</v>
+        <v>139808767</v>
       </c>
       <c r="D29" s="15">
         <f>'01 '!D29+'02'!D29+'03'!D29+'04'!D29+'05'!D29+'06'!D29+'07'!D29+'08'!D29+'09'!D29+'10'!D29+'11'!D29+'12'!D29+'13'!D29+'14'!D29+'15'!D29+'16'!D29+'17'!D29+'18'!D29+'19'!D29+'20'!D29+'21'!D29+'22'!D29+'23'!D29+'24'!D29+'25'!D29+'26'!D29+'27'!D29+'28'!D29+'29'!D29+'30'!D29+'31'!D29</f>
-        <v>5756129</v>
+        <v>7773782</v>
       </c>
       <c r="E29" s="15">
         <f>'01 '!E29+'02'!E29+'03'!E29+'04'!E29+'05'!E29+'06'!E29+'07'!E29+'08'!E29+'09'!E29+'10'!E29+'11'!E29+'12'!E29+'13'!E29+'14'!E29+'15'!E29+'16'!E29+'17'!E29+'18'!E29+'19'!E29+'20'!E29+'21'!E29+'22'!E29+'23'!E29+'24'!E29+'25'!E29+'26'!E29+'27'!E29+'28'!E29+'29'!E29+'30'!E29+'31'!E29</f>
-        <v>3857646</v>
+        <v>5396115</v>
       </c>
       <c r="F29" s="15">
         <f>'01 '!F29+'02'!F29+'03'!F29+'04'!F29+'05'!F29+'06'!F29+'07'!F29+'08'!F29+'09'!F29+'10'!F29+'11'!F29+'12'!F29+'13'!F29+'14'!F29+'15'!F29+'16'!F29+'17'!F29+'18'!F29+'19'!F29+'20'!F29+'21'!F29+'22'!F29+'23'!F29+'24'!F29+'25'!F29+'26'!F29+'27'!F29+'28'!F29+'29'!F29+'30'!F29+'31'!F29</f>
-        <v>152494326</v>
+        <v>153037199</v>
       </c>
       <c r="G29" s="15">
         <f>'01 '!G29+'02'!G29+'03'!G29+'04'!G29+'05'!G29+'06'!G29+'07'!G29+'08'!G29+'09'!G29+'10'!G29+'11'!G29+'12'!G29+'13'!G29+'14'!G29+'15'!G29+'16'!G29+'17'!G29+'18'!G29+'19'!G29+'20'!G29+'21'!G29+'22'!G29+'23'!G29+'24'!G29+'25'!G29+'26'!G29+'27'!G29+'28'!G29+'29'!G29+'30'!G29+'31'!G29</f>
@@ -37907,11 +37907,11 @@
       </c>
       <c r="H29" s="15">
         <f>'01 '!H29+'02'!H29+'03'!H29+'04'!H29+'05'!H29+'06'!H29+'07'!H29+'08'!H29+'09'!H29+'10'!H29+'11'!H29+'12'!H29+'13'!H29+'14'!H29+'15'!H29+'16'!H29+'17'!H29+'18'!H29+'19'!H29+'20'!H29+'21'!H29+'22'!H29+'23'!H29+'24'!H29+'25'!H29+'26'!H29+'27'!H29+'28'!H29+'29'!H29+'30'!H29+'31'!H29</f>
-        <v>183451</v>
+        <v>363630</v>
       </c>
       <c r="I29" s="15">
         <f>SUM(C29:H29)</f>
-        <v>281014976</v>
+        <v>306379493</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="12"/>
@@ -37930,19 +37930,19 @@
       </c>
       <c r="C30" s="13">
         <f>'01 '!C30+'02'!C30+'03'!C30+'04'!C30+'05'!C30+'06'!C30+'07'!C30+'08'!C30+'09'!C30+'10'!C30+'11'!C30+'12'!C30+'13'!C30+'14'!C30+'15'!C30+'16'!C30+'17'!C30+'18'!C30+'19'!C30+'20'!C30+'21'!C30+'22'!C30+'23'!C30+'24'!C30+'25'!C30+'26'!C30+'27'!C30+'28'!C30+'29'!C30+'30'!C30+'31'!C30</f>
-        <v>226081854</v>
+        <v>460803188</v>
       </c>
       <c r="D30" s="13">
         <f>'01 '!D30+'02'!D30+'03'!D30+'04'!D30+'05'!D30+'06'!D30+'07'!D30+'08'!D30+'09'!D30+'10'!D30+'11'!D30+'12'!D30+'13'!D30+'14'!D30+'15'!D30+'16'!D30+'17'!D30+'18'!D30+'19'!D30+'20'!D30+'21'!D30+'22'!D30+'23'!D30+'24'!D30+'25'!D30+'26'!D30+'27'!D30+'28'!D30+'29'!D30+'30'!D30+'31'!D30</f>
-        <v>28110512</v>
+        <v>33499415</v>
       </c>
       <c r="E30" s="13">
         <f>'01 '!E30+'02'!E30+'03'!E30+'04'!E30+'05'!E30+'06'!E30+'07'!E30+'08'!E30+'09'!E30+'10'!E30+'11'!E30+'12'!E30+'13'!E30+'14'!E30+'15'!E30+'16'!E30+'17'!E30+'18'!E30+'19'!E30+'20'!E30+'21'!E30+'22'!E30+'23'!E30+'24'!E30+'25'!E30+'26'!E30+'27'!E30+'28'!E30+'29'!E30+'30'!E30+'31'!E30</f>
-        <v>5494892</v>
+        <v>7898156</v>
       </c>
       <c r="F30" s="13">
         <f>'01 '!F30+'02'!F30+'03'!F30+'04'!F30+'05'!F30+'06'!F30+'07'!F30+'08'!F30+'09'!F30+'10'!F30+'11'!F30+'12'!F30+'13'!F30+'14'!F30+'15'!F30+'16'!F30+'17'!F30+'18'!F30+'19'!F30+'20'!F30+'21'!F30+'22'!F30+'23'!F30+'24'!F30+'25'!F30+'26'!F30+'27'!F30+'28'!F30+'29'!F30+'30'!F30+'31'!F30</f>
-        <v>15700961</v>
+        <v>83844148</v>
       </c>
       <c r="G30" s="13">
         <f>'01 '!G30+'02'!G30+'03'!G30+'04'!G30+'05'!G30+'06'!G30+'07'!G30+'08'!G30+'09'!G30+'10'!G30+'11'!G30+'12'!G30+'13'!G30+'14'!G30+'15'!G30+'16'!G30+'17'!G30+'18'!G30+'19'!G30+'20'!G30+'21'!G30+'22'!G30+'23'!G30+'24'!G30+'25'!G30+'26'!G30+'27'!G30+'28'!G30+'29'!G30+'30'!G30+'31'!G30</f>
@@ -37950,11 +37950,11 @@
       </c>
       <c r="H30" s="13">
         <f>'01 '!H30+'02'!H30+'03'!H30+'04'!H30+'05'!H30+'06'!H30+'07'!H30+'08'!H30+'09'!H30+'10'!H30+'11'!H30+'12'!H30+'13'!H30+'14'!H30+'15'!H30+'16'!H30+'17'!H30+'18'!H30+'19'!H30+'20'!H30+'21'!H30+'22'!H30+'23'!H30+'24'!H30+'25'!H30+'26'!H30+'27'!H30+'28'!H30+'29'!H30+'30'!H30+'31'!H30</f>
-        <v>2830341</v>
+        <v>3587411</v>
       </c>
       <c r="I30" s="13">
         <f>SUM(C30:H30)</f>
-        <v>278218560</v>
+        <v>589632318</v>
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="12"/>
@@ -37973,7 +37973,7 @@
       </c>
       <c r="C31" s="15">
         <f>'01 '!C31+'02'!C31+'03'!C31+'04'!C31+'05'!C31+'06'!C31+'07'!C31+'08'!C31+'09'!C31+'10'!C31+'11'!C31+'12'!C31+'13'!C31+'14'!C31+'15'!C31+'16'!C31+'17'!C31+'18'!C31+'19'!C31+'20'!C31+'21'!C31+'22'!C31+'23'!C31+'24'!C31+'25'!C31+'26'!C31+'27'!C31+'28'!C31+'29'!C31+'30'!C31+'31'!C31</f>
-        <v>77850</v>
+        <v>77988</v>
       </c>
       <c r="D31" s="15">
         <f>'01 '!D31+'02'!D31+'03'!D31+'04'!D31+'05'!D31+'06'!D31+'07'!D31+'08'!D31+'09'!D31+'10'!D31+'11'!D31+'12'!D31+'13'!D31+'14'!D31+'15'!D31+'16'!D31+'17'!D31+'18'!D31+'19'!D31+'20'!D31+'21'!D31+'22'!D31+'23'!D31+'24'!D31+'25'!D31+'26'!D31+'27'!D31+'28'!D31+'29'!D31+'30'!D31+'31'!D31</f>
@@ -37981,7 +37981,7 @@
       </c>
       <c r="E31" s="15">
         <f>'01 '!E31+'02'!E31+'03'!E31+'04'!E31+'05'!E31+'06'!E31+'07'!E31+'08'!E31+'09'!E31+'10'!E31+'11'!E31+'12'!E31+'13'!E31+'14'!E31+'15'!E31+'16'!E31+'17'!E31+'18'!E31+'19'!E31+'20'!E31+'21'!E31+'22'!E31+'23'!E31+'24'!E31+'25'!E31+'26'!E31+'27'!E31+'28'!E31+'29'!E31+'30'!E31+'31'!E31</f>
-        <v>14050</v>
+        <v>15386</v>
       </c>
       <c r="F31" s="15">
         <f>'01 '!F31+'02'!F31+'03'!F31+'04'!F31+'05'!F31+'06'!F31+'07'!F31+'08'!F31+'09'!F31+'10'!F31+'11'!F31+'12'!F31+'13'!F31+'14'!F31+'15'!F31+'16'!F31+'17'!F31+'18'!F31+'19'!F31+'20'!F31+'21'!F31+'22'!F31+'23'!F31+'24'!F31+'25'!F31+'26'!F31+'27'!F31+'28'!F31+'29'!F31+'30'!F31+'31'!F31</f>
@@ -37993,11 +37993,11 @@
       </c>
       <c r="H31" s="15">
         <f>'01 '!H31+'02'!H31+'03'!H31+'04'!H31+'05'!H31+'06'!H31+'07'!H31+'08'!H31+'09'!H31+'10'!H31+'11'!H31+'12'!H31+'13'!H31+'14'!H31+'15'!H31+'16'!H31+'17'!H31+'18'!H31+'19'!H31+'20'!H31+'21'!H31+'22'!H31+'23'!H31+'24'!H31+'25'!H31+'26'!H31+'27'!H31+'28'!H31+'29'!H31+'30'!H31+'31'!H31</f>
-        <v>11704</v>
+        <v>34939</v>
       </c>
       <c r="I31" s="15">
         <f>SUM(C31:H31)</f>
-        <v>107593</v>
+        <v>132302</v>
       </c>
       <c r="J31" s="23"/>
       <c r="K31" s="12"/>
@@ -38011,15 +38011,15 @@
       </c>
       <c r="C32" s="13">
         <f>'01 '!C32+'02'!C32+'03'!C32+'04'!C32+'05'!C32+'06'!C32+'07'!C32+'08'!C32+'09'!C32+'10'!C32+'11'!C32+'12'!C32+'13'!C32+'14'!C32+'15'!C32+'16'!C32+'17'!C32+'18'!C32+'19'!C32+'20'!C32+'21'!C32+'22'!C32+'23'!C32+'24'!C32+'25'!C32+'26'!C32+'27'!C32+'28'!C32+'29'!C32+'30'!C32+'31'!C32</f>
-        <v>2568254</v>
+        <v>3225922</v>
       </c>
       <c r="D32" s="13">
         <f>'01 '!D32+'02'!D32+'03'!D32+'04'!D32+'05'!D32+'06'!D32+'07'!D32+'08'!D32+'09'!D32+'10'!D32+'11'!D32+'12'!D32+'13'!D32+'14'!D32+'15'!D32+'16'!D32+'17'!D32+'18'!D32+'19'!D32+'20'!D32+'21'!D32+'22'!D32+'23'!D32+'24'!D32+'25'!D32+'26'!D32+'27'!D32+'28'!D32+'29'!D32+'30'!D32+'31'!D32</f>
-        <v>324088</v>
+        <v>326411</v>
       </c>
       <c r="E32" s="13">
         <f>'01 '!E32+'02'!E32+'03'!E32+'04'!E32+'05'!E32+'06'!E32+'07'!E32+'08'!E32+'09'!E32+'10'!E32+'11'!E32+'12'!E32+'13'!E32+'14'!E32+'15'!E32+'16'!E32+'17'!E32+'18'!E32+'19'!E32+'20'!E32+'21'!E32+'22'!E32+'23'!E32+'24'!E32+'25'!E32+'26'!E32+'27'!E32+'28'!E32+'29'!E32+'30'!E32+'31'!E32</f>
-        <v>102430</v>
+        <v>119285</v>
       </c>
       <c r="F32" s="13">
         <f>'01 '!F32+'02'!F32+'03'!F32+'04'!F32+'05'!F32+'06'!F32+'07'!F32+'08'!F32+'09'!F32+'10'!F32+'11'!F32+'12'!F32+'13'!F32+'14'!F32+'15'!F32+'16'!F32+'17'!F32+'18'!F32+'19'!F32+'20'!F32+'21'!F32+'22'!F32+'23'!F32+'24'!F32+'25'!F32+'26'!F32+'27'!F32+'28'!F32+'29'!F32+'30'!F32+'31'!F32</f>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="H32" s="13">
         <f>'01 '!H32+'02'!H32+'03'!H32+'04'!H32+'05'!H32+'06'!H32+'07'!H32+'08'!H32+'09'!H32+'10'!H32+'11'!H32+'12'!H32+'13'!H32+'14'!H32+'15'!H32+'16'!H32+'17'!H32+'18'!H32+'19'!H32+'20'!H32+'21'!H32+'22'!H32+'23'!H32+'24'!H32+'25'!H32+'26'!H32+'27'!H32+'28'!H32+'29'!H32+'30'!H32+'31'!H32</f>
-        <v>87172</v>
+        <v>108382</v>
       </c>
       <c r="I32" s="13">
         <f>SUM(C32:H32)</f>
-        <v>3110546</v>
+        <v>3808602</v>
       </c>
       <c r="J32" s="23"/>
       <c r="K32" s="12"/>
@@ -38054,15 +38054,15 @@
       </c>
       <c r="C33" s="15">
         <f>'01 '!C33+'02'!C33+'03'!C33+'04'!C33+'05'!C33+'06'!C33+'07'!C33+'08'!C33+'09'!C33+'10'!C33+'11'!C33+'12'!C33+'13'!C33+'14'!C33+'15'!C33+'16'!C33+'17'!C33+'18'!C33+'19'!C33+'20'!C33+'21'!C33+'22'!C33+'23'!C33+'24'!C33+'25'!C33+'26'!C33+'27'!C33+'28'!C33+'29'!C33+'30'!C33+'31'!C33</f>
-        <v>7776850</v>
+        <v>77536517</v>
       </c>
       <c r="D33" s="15">
         <f>'01 '!D33+'02'!D33+'03'!D33+'04'!D33+'05'!D33+'06'!D33+'07'!D33+'08'!D33+'09'!D33+'10'!D33+'11'!D33+'12'!D33+'13'!D33+'14'!D33+'15'!D33+'16'!D33+'17'!D33+'18'!D33+'19'!D33+'20'!D33+'21'!D33+'22'!D33+'23'!D33+'24'!D33+'25'!D33+'26'!D33+'27'!D33+'28'!D33+'29'!D33+'30'!D33+'31'!D33</f>
-        <v>305802</v>
+        <v>348123</v>
       </c>
       <c r="E33" s="15">
         <f>'01 '!E33+'02'!E33+'03'!E33+'04'!E33+'05'!E33+'06'!E33+'07'!E33+'08'!E33+'09'!E33+'10'!E33+'11'!E33+'12'!E33+'13'!E33+'14'!E33+'15'!E33+'16'!E33+'17'!E33+'18'!E33+'19'!E33+'20'!E33+'21'!E33+'22'!E33+'23'!E33+'24'!E33+'25'!E33+'26'!E33+'27'!E33+'28'!E33+'29'!E33+'30'!E33+'31'!E33</f>
-        <v>64135</v>
+        <v>81152</v>
       </c>
       <c r="F33" s="15">
         <f>'01 '!F33+'02'!F33+'03'!F33+'04'!F33+'05'!F33+'06'!F33+'07'!F33+'08'!F33+'09'!F33+'10'!F33+'11'!F33+'12'!F33+'13'!F33+'14'!F33+'15'!F33+'16'!F33+'17'!F33+'18'!F33+'19'!F33+'20'!F33+'21'!F33+'22'!F33+'23'!F33+'24'!F33+'25'!F33+'26'!F33+'27'!F33+'28'!F33+'29'!F33+'30'!F33+'31'!F33</f>
@@ -38074,11 +38074,11 @@
       </c>
       <c r="H33" s="15">
         <f>'01 '!H33+'02'!H33+'03'!H33+'04'!H33+'05'!H33+'06'!H33+'07'!H33+'08'!H33+'09'!H33+'10'!H33+'11'!H33+'12'!H33+'13'!H33+'14'!H33+'15'!H33+'16'!H33+'17'!H33+'18'!H33+'19'!H33+'20'!H33+'21'!H33+'22'!H33+'23'!H33+'24'!H33+'25'!H33+'26'!H33+'27'!H33+'28'!H33+'29'!H33+'30'!H33+'31'!H33</f>
-        <v>105070</v>
+        <v>151850</v>
       </c>
       <c r="I33" s="15">
         <f>SUM(C33:H33)</f>
-        <v>8251857</v>
+        <v>78117642</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="12"/>
@@ -38097,19 +38097,19 @@
       </c>
       <c r="C34" s="13">
         <f>'01 '!C34+'02'!C34+'03'!C34+'04'!C34+'05'!C34+'06'!C34+'07'!C34+'08'!C34+'09'!C34+'10'!C34+'11'!C34+'12'!C34+'13'!C34+'14'!C34+'15'!C34+'16'!C34+'17'!C34+'18'!C34+'19'!C34+'20'!C34+'21'!C34+'22'!C34+'23'!C34+'24'!C34+'25'!C34+'26'!C34+'27'!C34+'28'!C34+'29'!C34+'30'!C34+'31'!C34</f>
-        <v>23787328</v>
+        <v>32748303</v>
       </c>
       <c r="D34" s="13">
         <f>'01 '!D34+'02'!D34+'03'!D34+'04'!D34+'05'!D34+'06'!D34+'07'!D34+'08'!D34+'09'!D34+'10'!D34+'11'!D34+'12'!D34+'13'!D34+'14'!D34+'15'!D34+'16'!D34+'17'!D34+'18'!D34+'19'!D34+'20'!D34+'21'!D34+'22'!D34+'23'!D34+'24'!D34+'25'!D34+'26'!D34+'27'!D34+'28'!D34+'29'!D34+'30'!D34+'31'!D34</f>
-        <v>1343057</v>
+        <v>1395808</v>
       </c>
       <c r="E34" s="13">
         <f>'01 '!E34+'02'!E34+'03'!E34+'04'!E34+'05'!E34+'06'!E34+'07'!E34+'08'!E34+'09'!E34+'10'!E34+'11'!E34+'12'!E34+'13'!E34+'14'!E34+'15'!E34+'16'!E34+'17'!E34+'18'!E34+'19'!E34+'20'!E34+'21'!E34+'22'!E34+'23'!E34+'24'!E34+'25'!E34+'26'!E34+'27'!E34+'28'!E34+'29'!E34+'30'!E34+'31'!E34</f>
-        <v>673983</v>
+        <v>891739</v>
       </c>
       <c r="F34" s="13">
         <f>'01 '!F34+'02'!F34+'03'!F34+'04'!F34+'05'!F34+'06'!F34+'07'!F34+'08'!F34+'09'!F34+'10'!F34+'11'!F34+'12'!F34+'13'!F34+'14'!F34+'15'!F34+'16'!F34+'17'!F34+'18'!F34+'19'!F34+'20'!F34+'21'!F34+'22'!F34+'23'!F34+'24'!F34+'25'!F34+'26'!F34+'27'!F34+'28'!F34+'29'!F34+'30'!F34+'31'!F34</f>
-        <v>1808386</v>
+        <v>1972735</v>
       </c>
       <c r="G34" s="13">
         <f>'01 '!G34+'02'!G34+'03'!G34+'04'!G34+'05'!G34+'06'!G34+'07'!G34+'08'!G34+'09'!G34+'10'!G34+'11'!G34+'12'!G34+'13'!G34+'14'!G34+'15'!G34+'16'!G34+'17'!G34+'18'!G34+'19'!G34+'20'!G34+'21'!G34+'22'!G34+'23'!G34+'24'!G34+'25'!G34+'26'!G34+'27'!G34+'28'!G34+'29'!G34+'30'!G34+'31'!G34</f>
@@ -38117,11 +38117,11 @@
       </c>
       <c r="H34" s="13">
         <f>'01 '!H34+'02'!H34+'03'!H34+'04'!H34+'05'!H34+'06'!H34+'07'!H34+'08'!H34+'09'!H34+'10'!H34+'11'!H34+'12'!H34+'13'!H34+'14'!H34+'15'!H34+'16'!H34+'17'!H34+'18'!H34+'19'!H34+'20'!H34+'21'!H34+'22'!H34+'23'!H34+'24'!H34+'25'!H34+'26'!H34+'27'!H34+'28'!H34+'29'!H34+'30'!H34+'31'!H34</f>
-        <v>583727</v>
+        <v>1253989</v>
       </c>
       <c r="I34" s="13">
         <f>SUM(C34:H34)</f>
-        <v>28196481</v>
+        <v>38262574</v>
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="12"/>
@@ -38140,7 +38140,7 @@
       </c>
       <c r="C35" s="15">
         <f>'01 '!C35+'02'!C35+'03'!C35+'04'!C35+'05'!C35+'06'!C35+'07'!C35+'08'!C35+'09'!C35+'10'!C35+'11'!C35+'12'!C35+'13'!C35+'14'!C35+'15'!C35+'16'!C35+'17'!C35+'18'!C35+'19'!C35+'20'!C35+'21'!C35+'22'!C35+'23'!C35+'24'!C35+'25'!C35+'26'!C35+'27'!C35+'28'!C35+'29'!C35+'30'!C35+'31'!C35</f>
-        <v>41676796</v>
+        <v>89995337</v>
       </c>
       <c r="D35" s="15">
         <f>'01 '!D35+'02'!D35+'03'!D35+'04'!D35+'05'!D35+'06'!D35+'07'!D35+'08'!D35+'09'!D35+'10'!D35+'11'!D35+'12'!D35+'13'!D35+'14'!D35+'15'!D35+'16'!D35+'17'!D35+'18'!D35+'19'!D35+'20'!D35+'21'!D35+'22'!D35+'23'!D35+'24'!D35+'25'!D35+'26'!D35+'27'!D35+'28'!D35+'29'!D35+'30'!D35+'31'!D35</f>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="E35" s="15">
         <f>'01 '!E35+'02'!E35+'03'!E35+'04'!E35+'05'!E35+'06'!E35+'07'!E35+'08'!E35+'09'!E35+'10'!E35+'11'!E35+'12'!E35+'13'!E35+'14'!E35+'15'!E35+'16'!E35+'17'!E35+'18'!E35+'19'!E35+'20'!E35+'21'!E35+'22'!E35+'23'!E35+'24'!E35+'25'!E35+'26'!E35+'27'!E35+'28'!E35+'29'!E35+'30'!E35+'31'!E35</f>
-        <v>1444752</v>
+        <v>1466156</v>
       </c>
       <c r="F35" s="15">
         <f>'01 '!F35+'02'!F35+'03'!F35+'04'!F35+'05'!F35+'06'!F35+'07'!F35+'08'!F35+'09'!F35+'10'!F35+'11'!F35+'12'!F35+'13'!F35+'14'!F35+'15'!F35+'16'!F35+'17'!F35+'18'!F35+'19'!F35+'20'!F35+'21'!F35+'22'!F35+'23'!F35+'24'!F35+'25'!F35+'26'!F35+'27'!F35+'28'!F35+'29'!F35+'30'!F35+'31'!F35</f>
@@ -38160,11 +38160,11 @@
       </c>
       <c r="H35" s="15">
         <f>'01 '!H35+'02'!H35+'03'!H35+'04'!H35+'05'!H35+'06'!H35+'07'!H35+'08'!H35+'09'!H35+'10'!H35+'11'!H35+'12'!H35+'13'!H35+'14'!H35+'15'!H35+'16'!H35+'17'!H35+'18'!H35+'19'!H35+'20'!H35+'21'!H35+'22'!H35+'23'!H35+'24'!H35+'25'!H35+'26'!H35+'27'!H35+'28'!H35+'29'!H35+'30'!H35+'31'!H35</f>
-        <v>72235</v>
+        <v>123015</v>
       </c>
       <c r="I35" s="15">
         <f>SUM(C35:H35)</f>
-        <v>85987426</v>
+        <v>134378151</v>
       </c>
       <c r="J35" s="23"/>
       <c r="K35" s="12"/>
@@ -38183,15 +38183,15 @@
       </c>
       <c r="C36" s="13">
         <f>'01 '!C36+'02'!C36+'03'!C36+'04'!C36+'05'!C36+'06'!C36+'07'!C36+'08'!C36+'09'!C36+'10'!C36+'11'!C36+'12'!C36+'13'!C36+'14'!C36+'15'!C36+'16'!C36+'17'!C36+'18'!C36+'19'!C36+'20'!C36+'21'!C36+'22'!C36+'23'!C36+'24'!C36+'25'!C36+'26'!C36+'27'!C36+'28'!C36+'29'!C36+'30'!C36+'31'!C36</f>
-        <v>3467536</v>
+        <v>5483516</v>
       </c>
       <c r="D36" s="13">
         <f>'01 '!D36+'02'!D36+'03'!D36+'04'!D36+'05'!D36+'06'!D36+'07'!D36+'08'!D36+'09'!D36+'10'!D36+'11'!D36+'12'!D36+'13'!D36+'14'!D36+'15'!D36+'16'!D36+'17'!D36+'18'!D36+'19'!D36+'20'!D36+'21'!D36+'22'!D36+'23'!D36+'24'!D36+'25'!D36+'26'!D36+'27'!D36+'28'!D36+'29'!D36+'30'!D36+'31'!D36</f>
-        <v>217731</v>
+        <v>237913</v>
       </c>
       <c r="E36" s="13">
         <f>'01 '!E36+'02'!E36+'03'!E36+'04'!E36+'05'!E36+'06'!E36+'07'!E36+'08'!E36+'09'!E36+'10'!E36+'11'!E36+'12'!E36+'13'!E36+'14'!E36+'15'!E36+'16'!E36+'17'!E36+'18'!E36+'19'!E36+'20'!E36+'21'!E36+'22'!E36+'23'!E36+'24'!E36+'25'!E36+'26'!E36+'27'!E36+'28'!E36+'29'!E36+'30'!E36+'31'!E36</f>
-        <v>75904</v>
+        <v>100786</v>
       </c>
       <c r="F36" s="13">
         <f>'01 '!F36+'02'!F36+'03'!F36+'04'!F36+'05'!F36+'06'!F36+'07'!F36+'08'!F36+'09'!F36+'10'!F36+'11'!F36+'12'!F36+'13'!F36+'14'!F36+'15'!F36+'16'!F36+'17'!F36+'18'!F36+'19'!F36+'20'!F36+'21'!F36+'22'!F36+'23'!F36+'24'!F36+'25'!F36+'26'!F36+'27'!F36+'28'!F36+'29'!F36+'30'!F36+'31'!F36</f>
@@ -38203,11 +38203,11 @@
       </c>
       <c r="H36" s="13">
         <f>'01 '!H36+'02'!H36+'03'!H36+'04'!H36+'05'!H36+'06'!H36+'07'!H36+'08'!H36+'09'!H36+'10'!H36+'11'!H36+'12'!H36+'13'!H36+'14'!H36+'15'!H36+'16'!H36+'17'!H36+'18'!H36+'19'!H36+'20'!H36+'21'!H36+'22'!H36+'23'!H36+'24'!H36+'25'!H36+'26'!H36+'27'!H36+'28'!H36+'29'!H36+'30'!H36+'31'!H36</f>
-        <v>482110</v>
+        <v>647683</v>
       </c>
       <c r="I36" s="13">
         <f>SUM(C36:H36)</f>
-        <v>4243281</v>
+        <v>6469898</v>
       </c>
       <c r="J36" s="23"/>
       <c r="K36" s="12"/>
@@ -38221,19 +38221,19 @@
       </c>
       <c r="C37" s="15">
         <f>'01 '!C37+'02'!C37+'03'!C37+'04'!C37+'05'!C37+'06'!C37+'07'!C37+'08'!C37+'09'!C37+'10'!C37+'11'!C37+'12'!C37+'13'!C37+'14'!C37+'15'!C37+'16'!C37+'17'!C37+'18'!C37+'19'!C37+'20'!C37+'21'!C37+'22'!C37+'23'!C37+'24'!C37+'25'!C37+'26'!C37+'27'!C37+'28'!C37+'29'!C37+'30'!C37+'31'!C37</f>
-        <v>220254715</v>
+        <v>290670527</v>
       </c>
       <c r="D37" s="15">
         <f>'01 '!D37+'02'!D37+'03'!D37+'04'!D37+'05'!D37+'06'!D37+'07'!D37+'08'!D37+'09'!D37+'10'!D37+'11'!D37+'12'!D37+'13'!D37+'14'!D37+'15'!D37+'16'!D37+'17'!D37+'18'!D37+'19'!D37+'20'!D37+'21'!D37+'22'!D37+'23'!D37+'24'!D37+'25'!D37+'26'!D37+'27'!D37+'28'!D37+'29'!D37+'30'!D37+'31'!D37</f>
-        <v>39292969</v>
+        <v>49679718</v>
       </c>
       <c r="E37" s="15">
         <f>'01 '!E37+'02'!E37+'03'!E37+'04'!E37+'05'!E37+'06'!E37+'07'!E37+'08'!E37+'09'!E37+'10'!E37+'11'!E37+'12'!E37+'13'!E37+'14'!E37+'15'!E37+'16'!E37+'17'!E37+'18'!E37+'19'!E37+'20'!E37+'21'!E37+'22'!E37+'23'!E37+'24'!E37+'25'!E37+'26'!E37+'27'!E37+'28'!E37+'29'!E37+'30'!E37+'31'!E37</f>
-        <v>5466393</v>
+        <v>8139529</v>
       </c>
       <c r="F37" s="15">
         <f>'01 '!F37+'02'!F37+'03'!F37+'04'!F37+'05'!F37+'06'!F37+'07'!F37+'08'!F37+'09'!F37+'10'!F37+'11'!F37+'12'!F37+'13'!F37+'14'!F37+'15'!F37+'16'!F37+'17'!F37+'18'!F37+'19'!F37+'20'!F37+'21'!F37+'22'!F37+'23'!F37+'24'!F37+'25'!F37+'26'!F37+'27'!F37+'28'!F37+'29'!F37+'30'!F37+'31'!F37</f>
-        <v>1790069</v>
+        <v>2574830</v>
       </c>
       <c r="G37" s="15">
         <f>'01 '!G37+'02'!G37+'03'!G37+'04'!G37+'05'!G37+'06'!G37+'07'!G37+'08'!G37+'09'!G37+'10'!G37+'11'!G37+'12'!G37+'13'!G37+'14'!G37+'15'!G37+'16'!G37+'17'!G37+'18'!G37+'19'!G37+'20'!G37+'21'!G37+'22'!G37+'23'!G37+'24'!G37+'25'!G37+'26'!G37+'27'!G37+'28'!G37+'29'!G37+'30'!G37+'31'!G37</f>
@@ -38241,11 +38241,11 @@
       </c>
       <c r="H37" s="15">
         <f>'01 '!H37+'02'!H37+'03'!H37+'04'!H37+'05'!H37+'06'!H37+'07'!H37+'08'!H37+'09'!H37+'10'!H37+'11'!H37+'12'!H37+'13'!H37+'14'!H37+'15'!H37+'16'!H37+'17'!H37+'18'!H37+'19'!H37+'20'!H37+'21'!H37+'22'!H37+'23'!H37+'24'!H37+'25'!H37+'26'!H37+'27'!H37+'28'!H37+'29'!H37+'30'!H37+'31'!H37</f>
-        <v>3497456</v>
+        <v>4662642</v>
       </c>
       <c r="I37" s="15">
         <f>SUM(C37:H37)</f>
-        <v>270304102</v>
+        <v>355729746</v>
       </c>
       <c r="J37" s="23"/>
       <c r="K37" s="12"/>
@@ -38264,19 +38264,19 @@
       </c>
       <c r="C38" s="13">
         <f>'01 '!C38+'02'!C38+'03'!C38+'04'!C38+'05'!C38+'06'!C38+'07'!C38+'08'!C38+'09'!C38+'10'!C38+'11'!C38+'12'!C38+'13'!C38+'14'!C38+'15'!C38+'16'!C38+'17'!C38+'18'!C38+'19'!C38+'20'!C38+'21'!C38+'22'!C38+'23'!C38+'24'!C38+'25'!C38+'26'!C38+'27'!C38+'28'!C38+'29'!C38+'30'!C38+'31'!C38</f>
-        <v>71651319</v>
+        <v>111080218</v>
       </c>
       <c r="D38" s="13">
         <f>'01 '!D38+'02'!D38+'03'!D38+'04'!D38+'05'!D38+'06'!D38+'07'!D38+'08'!D38+'09'!D38+'10'!D38+'11'!D38+'12'!D38+'13'!D38+'14'!D38+'15'!D38+'16'!D38+'17'!D38+'18'!D38+'19'!D38+'20'!D38+'21'!D38+'22'!D38+'23'!D38+'24'!D38+'25'!D38+'26'!D38+'27'!D38+'28'!D38+'29'!D38+'30'!D38+'31'!D38</f>
-        <v>0</v>
+        <v>132010</v>
       </c>
       <c r="E38" s="13">
         <f>'01 '!E38+'02'!E38+'03'!E38+'04'!E38+'05'!E38+'06'!E38+'07'!E38+'08'!E38+'09'!E38+'10'!E38+'11'!E38+'12'!E38+'13'!E38+'14'!E38+'15'!E38+'16'!E38+'17'!E38+'18'!E38+'19'!E38+'20'!E38+'21'!E38+'22'!E38+'23'!E38+'24'!E38+'25'!E38+'26'!E38+'27'!E38+'28'!E38+'29'!E38+'30'!E38+'31'!E38</f>
-        <v>2561088</v>
+        <v>3952518</v>
       </c>
       <c r="F38" s="13">
         <f>'01 '!F38+'02'!F38+'03'!F38+'04'!F38+'05'!F38+'06'!F38+'07'!F38+'08'!F38+'09'!F38+'10'!F38+'11'!F38+'12'!F38+'13'!F38+'14'!F38+'15'!F38+'16'!F38+'17'!F38+'18'!F38+'19'!F38+'20'!F38+'21'!F38+'22'!F38+'23'!F38+'24'!F38+'25'!F38+'26'!F38+'27'!F38+'28'!F38+'29'!F38+'30'!F38+'31'!F38</f>
-        <v>0</v>
+        <v>73535913</v>
       </c>
       <c r="G38" s="13">
         <f>'01 '!G38+'02'!G38+'03'!G38+'04'!G38+'05'!G38+'06'!G38+'07'!G38+'08'!G38+'09'!G38+'10'!G38+'11'!G38+'12'!G38+'13'!G38+'14'!G38+'15'!G38+'16'!G38+'17'!G38+'18'!G38+'19'!G38+'20'!G38+'21'!G38+'22'!G38+'23'!G38+'24'!G38+'25'!G38+'26'!G38+'27'!G38+'28'!G38+'29'!G38+'30'!G38+'31'!G38</f>
@@ -38284,11 +38284,11 @@
       </c>
       <c r="H38" s="13">
         <f>'01 '!H38+'02'!H38+'03'!H38+'04'!H38+'05'!H38+'06'!H38+'07'!H38+'08'!H38+'09'!H38+'10'!H38+'11'!H38+'12'!H38+'13'!H38+'14'!H38+'15'!H38+'16'!H38+'17'!H38+'18'!H38+'19'!H38+'20'!H38+'21'!H38+'22'!H38+'23'!H38+'24'!H38+'25'!H38+'26'!H38+'27'!H38+'28'!H38+'29'!H38+'30'!H38+'31'!H38</f>
-        <v>20100</v>
+        <v>23915</v>
       </c>
       <c r="I38" s="13">
         <f>SUM(C38:H38)</f>
-        <v>74232507</v>
+        <v>188724574</v>
       </c>
       <c r="J38" s="23"/>
       <c r="K38" s="12"/>
@@ -38307,19 +38307,19 @@
       </c>
       <c r="C39" s="15">
         <f>'01 '!C39+'02'!C39+'03'!C39+'04'!C39+'05'!C39+'06'!C39+'07'!C39+'08'!C39+'09'!C39+'10'!C39+'11'!C39+'12'!C39+'13'!C39+'14'!C39+'15'!C39+'16'!C39+'17'!C39+'18'!C39+'19'!C39+'20'!C39+'21'!C39+'22'!C39+'23'!C39+'24'!C39+'25'!C39+'26'!C39+'27'!C39+'28'!C39+'29'!C39+'30'!C39+'31'!C39</f>
-        <v>1136879868</v>
+        <v>1415126370</v>
       </c>
       <c r="D39" s="15">
         <f>'01 '!D39+'02'!D39+'03'!D39+'04'!D39+'05'!D39+'06'!D39+'07'!D39+'08'!D39+'09'!D39+'10'!D39+'11'!D39+'12'!D39+'13'!D39+'14'!D39+'15'!D39+'16'!D39+'17'!D39+'18'!D39+'19'!D39+'20'!D39+'21'!D39+'22'!D39+'23'!D39+'24'!D39+'25'!D39+'26'!D39+'27'!D39+'28'!D39+'29'!D39+'30'!D39+'31'!D39</f>
-        <v>181053064</v>
+        <v>217925299</v>
       </c>
       <c r="E39" s="15">
         <f>'01 '!E39+'02'!E39+'03'!E39+'04'!E39+'05'!E39+'06'!E39+'07'!E39+'08'!E39+'09'!E39+'10'!E39+'11'!E39+'12'!E39+'13'!E39+'14'!E39+'15'!E39+'16'!E39+'17'!E39+'18'!E39+'19'!E39+'20'!E39+'21'!E39+'22'!E39+'23'!E39+'24'!E39+'25'!E39+'26'!E39+'27'!E39+'28'!E39+'29'!E39+'30'!E39+'31'!E39</f>
-        <v>33981704</v>
+        <v>41023189</v>
       </c>
       <c r="F39" s="15">
         <f>'01 '!F39+'02'!F39+'03'!F39+'04'!F39+'05'!F39+'06'!F39+'07'!F39+'08'!F39+'09'!F39+'10'!F39+'11'!F39+'12'!F39+'13'!F39+'14'!F39+'15'!F39+'16'!F39+'17'!F39+'18'!F39+'19'!F39+'20'!F39+'21'!F39+'22'!F39+'23'!F39+'24'!F39+'25'!F39+'26'!F39+'27'!F39+'28'!F39+'29'!F39+'30'!F39+'31'!F39</f>
-        <v>295271982</v>
+        <v>490305658</v>
       </c>
       <c r="G39" s="15">
         <f>'01 '!G39+'02'!G39+'03'!G39+'04'!G39+'05'!G39+'06'!G39+'07'!G39+'08'!G39+'09'!G39+'10'!G39+'11'!G39+'12'!G39+'13'!G39+'14'!G39+'15'!G39+'16'!G39+'17'!G39+'18'!G39+'19'!G39+'20'!G39+'21'!G39+'22'!G39+'23'!G39+'24'!G39+'25'!G39+'26'!G39+'27'!G39+'28'!G39+'29'!G39+'30'!G39+'31'!G39</f>
@@ -38327,11 +38327,11 @@
       </c>
       <c r="H39" s="15">
         <f>'01 '!H39+'02'!H39+'03'!H39+'04'!H39+'05'!H39+'06'!H39+'07'!H39+'08'!H39+'09'!H39+'10'!H39+'11'!H39+'12'!H39+'13'!H39+'14'!H39+'15'!H39+'16'!H39+'17'!H39+'18'!H39+'19'!H39+'20'!H39+'21'!H39+'22'!H39+'23'!H39+'24'!H39+'25'!H39+'26'!H39+'27'!H39+'28'!H39+'29'!H39+'30'!H39+'31'!H39</f>
-        <v>2628994</v>
+        <v>3575501</v>
       </c>
       <c r="I39" s="15">
         <f>SUM(C39:H39)</f>
-        <v>1649815612</v>
+        <v>2167956017</v>
       </c>
       <c r="J39" s="23"/>
       <c r="K39" s="12"/>
@@ -38350,19 +38350,19 @@
       </c>
       <c r="C40" s="13">
         <f>'01 '!C40+'02'!C40+'03'!C40+'04'!C40+'05'!C40+'06'!C40+'07'!C40+'08'!C40+'09'!C40+'10'!C40+'11'!C40+'12'!C40+'13'!C40+'14'!C40+'15'!C40+'16'!C40+'17'!C40+'18'!C40+'19'!C40+'20'!C40+'21'!C40+'22'!C40+'23'!C40+'24'!C40+'25'!C40+'26'!C40+'27'!C40+'28'!C40+'29'!C40+'30'!C40+'31'!C40</f>
-        <v>8177586</v>
+        <v>19567472</v>
       </c>
       <c r="D40" s="13">
         <f>'01 '!D40+'02'!D40+'03'!D40+'04'!D40+'05'!D40+'06'!D40+'07'!D40+'08'!D40+'09'!D40+'10'!D40+'11'!D40+'12'!D40+'13'!D40+'14'!D40+'15'!D40+'16'!D40+'17'!D40+'18'!D40+'19'!D40+'20'!D40+'21'!D40+'22'!D40+'23'!D40+'24'!D40+'25'!D40+'26'!D40+'27'!D40+'28'!D40+'29'!D40+'30'!D40+'31'!D40</f>
-        <v>1098397</v>
+        <v>2374655</v>
       </c>
       <c r="E40" s="13">
         <f>'01 '!E40+'02'!E40+'03'!E40+'04'!E40+'05'!E40+'06'!E40+'07'!E40+'08'!E40+'09'!E40+'10'!E40+'11'!E40+'12'!E40+'13'!E40+'14'!E40+'15'!E40+'16'!E40+'17'!E40+'18'!E40+'19'!E40+'20'!E40+'21'!E40+'22'!E40+'23'!E40+'24'!E40+'25'!E40+'26'!E40+'27'!E40+'28'!E40+'29'!E40+'30'!E40+'31'!E40</f>
-        <v>457809</v>
+        <v>634158</v>
       </c>
       <c r="F40" s="13">
         <f>'01 '!F40+'02'!F40+'03'!F40+'04'!F40+'05'!F40+'06'!F40+'07'!F40+'08'!F40+'09'!F40+'10'!F40+'11'!F40+'12'!F40+'13'!F40+'14'!F40+'15'!F40+'16'!F40+'17'!F40+'18'!F40+'19'!F40+'20'!F40+'21'!F40+'22'!F40+'23'!F40+'24'!F40+'25'!F40+'26'!F40+'27'!F40+'28'!F40+'29'!F40+'30'!F40+'31'!F40</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="G40" s="13">
         <f>'01 '!G40+'02'!G40+'03'!G40+'04'!G40+'05'!G40+'06'!G40+'07'!G40+'08'!G40+'09'!G40+'10'!G40+'11'!G40+'12'!G40+'13'!G40+'14'!G40+'15'!G40+'16'!G40+'17'!G40+'18'!G40+'19'!G40+'20'!G40+'21'!G40+'22'!G40+'23'!G40+'24'!G40+'25'!G40+'26'!G40+'27'!G40+'28'!G40+'29'!G40+'30'!G40+'31'!G40</f>
@@ -38370,11 +38370,11 @@
       </c>
       <c r="H40" s="13">
         <f>'01 '!H40+'02'!H40+'03'!H40+'04'!H40+'05'!H40+'06'!H40+'07'!H40+'08'!H40+'09'!H40+'10'!H40+'11'!H40+'12'!H40+'13'!H40+'14'!H40+'15'!H40+'16'!H40+'17'!H40+'18'!H40+'19'!H40+'20'!H40+'21'!H40+'22'!H40+'23'!H40+'24'!H40+'25'!H40+'26'!H40+'27'!H40+'28'!H40+'29'!H40+'30'!H40+'31'!H40</f>
-        <v>303446</v>
+        <v>384260</v>
       </c>
       <c r="I40" s="13">
         <f>SUM(C40:H40)</f>
-        <v>10037238</v>
+        <v>22960669</v>
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="12"/>
@@ -38393,15 +38393,15 @@
       </c>
       <c r="C41" s="15">
         <f>'01 '!C41+'02'!C41+'03'!C41+'04'!C41+'05'!C41+'06'!C41+'07'!C41+'08'!C41+'09'!C41+'10'!C41+'11'!C41+'12'!C41+'13'!C41+'14'!C41+'15'!C41+'16'!C41+'17'!C41+'18'!C41+'19'!C41+'20'!C41+'21'!C41+'22'!C41+'23'!C41+'24'!C41+'25'!C41+'26'!C41+'27'!C41+'28'!C41+'29'!C41+'30'!C41+'31'!C41</f>
-        <v>2273289</v>
+        <v>2559500</v>
       </c>
       <c r="D41" s="15">
         <f>'01 '!D41+'02'!D41+'03'!D41+'04'!D41+'05'!D41+'06'!D41+'07'!D41+'08'!D41+'09'!D41+'10'!D41+'11'!D41+'12'!D41+'13'!D41+'14'!D41+'15'!D41+'16'!D41+'17'!D41+'18'!D41+'19'!D41+'20'!D41+'21'!D41+'22'!D41+'23'!D41+'24'!D41+'25'!D41+'26'!D41+'27'!D41+'28'!D41+'29'!D41+'30'!D41+'31'!D41</f>
-        <v>55166</v>
+        <v>56744</v>
       </c>
       <c r="E41" s="15">
         <f>'01 '!E41+'02'!E41+'03'!E41+'04'!E41+'05'!E41+'06'!E41+'07'!E41+'08'!E41+'09'!E41+'10'!E41+'11'!E41+'12'!E41+'13'!E41+'14'!E41+'15'!E41+'16'!E41+'17'!E41+'18'!E41+'19'!E41+'20'!E41+'21'!E41+'22'!E41+'23'!E41+'24'!E41+'25'!E41+'26'!E41+'27'!E41+'28'!E41+'29'!E41+'30'!E41+'31'!E41</f>
-        <v>38286</v>
+        <v>48981</v>
       </c>
       <c r="F41" s="15">
         <f>'01 '!F41+'02'!F41+'03'!F41+'04'!F41+'05'!F41+'06'!F41+'07'!F41+'08'!F41+'09'!F41+'10'!F41+'11'!F41+'12'!F41+'13'!F41+'14'!F41+'15'!F41+'16'!F41+'17'!F41+'18'!F41+'19'!F41+'20'!F41+'21'!F41+'22'!F41+'23'!F41+'24'!F41+'25'!F41+'26'!F41+'27'!F41+'28'!F41+'29'!F41+'30'!F41+'31'!F41</f>
@@ -38413,11 +38413,11 @@
       </c>
       <c r="H41" s="15">
         <f>'01 '!H41+'02'!H41+'03'!H41+'04'!H41+'05'!H41+'06'!H41+'07'!H41+'08'!H41+'09'!H41+'10'!H41+'11'!H41+'12'!H41+'13'!H41+'14'!H41+'15'!H41+'16'!H41+'17'!H41+'18'!H41+'19'!H41+'20'!H41+'21'!H41+'22'!H41+'23'!H41+'24'!H41+'25'!H41+'26'!H41+'27'!H41+'28'!H41+'29'!H41+'30'!H41+'31'!H41</f>
-        <v>2623618</v>
+        <v>3073379</v>
       </c>
       <c r="I41" s="15">
         <f>SUM(C41:H41)</f>
-        <v>4990359</v>
+        <v>5738604</v>
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="12"/>
@@ -38436,31 +38436,31 @@
       </c>
       <c r="C42" s="13">
         <f>'01 '!C42+'02'!C42+'03'!C42+'04'!C42+'05'!C42+'06'!C42+'07'!C42+'08'!C42+'09'!C42+'10'!C42+'11'!C42+'12'!C42+'13'!C42+'14'!C42+'15'!C42+'16'!C42+'17'!C42+'18'!C42+'19'!C42+'20'!C42+'21'!C42+'22'!C42+'23'!C42+'24'!C42+'25'!C42+'26'!C42+'27'!C42+'28'!C42+'29'!C42+'30'!C42+'31'!C42</f>
-        <v>349510970</v>
+        <v>470993342</v>
       </c>
       <c r="D42" s="13">
         <f>'01 '!D42+'02'!D42+'03'!D42+'04'!D42+'05'!D42+'06'!D42+'07'!D42+'08'!D42+'09'!D42+'10'!D42+'11'!D42+'12'!D42+'13'!D42+'14'!D42+'15'!D42+'16'!D42+'17'!D42+'18'!D42+'19'!D42+'20'!D42+'21'!D42+'22'!D42+'23'!D42+'24'!D42+'25'!D42+'26'!D42+'27'!D42+'28'!D42+'29'!D42+'30'!D42+'31'!D42</f>
-        <v>114997361</v>
+        <v>136341061</v>
       </c>
       <c r="E42" s="13">
         <f>'01 '!E42+'02'!E42+'03'!E42+'04'!E42+'05'!E42+'06'!E42+'07'!E42+'08'!E42+'09'!E42+'10'!E42+'11'!E42+'12'!E42+'13'!E42+'14'!E42+'15'!E42+'16'!E42+'17'!E42+'18'!E42+'19'!E42+'20'!E42+'21'!E42+'22'!E42+'23'!E42+'24'!E42+'25'!E42+'26'!E42+'27'!E42+'28'!E42+'29'!E42+'30'!E42+'31'!E42</f>
-        <v>20922382</v>
+        <v>25520191</v>
       </c>
       <c r="F42" s="13">
         <f>'01 '!F42+'02'!F42+'03'!F42+'04'!F42+'05'!F42+'06'!F42+'07'!F42+'08'!F42+'09'!F42+'10'!F42+'11'!F42+'12'!F42+'13'!F42+'14'!F42+'15'!F42+'16'!F42+'17'!F42+'18'!F42+'19'!F42+'20'!F42+'21'!F42+'22'!F42+'23'!F42+'24'!F42+'25'!F42+'26'!F42+'27'!F42+'28'!F42+'29'!F42+'30'!F42+'31'!F42</f>
-        <v>1730971</v>
+        <v>1751003</v>
       </c>
       <c r="G42" s="13">
         <f>'01 '!G42+'02'!G42+'03'!G42+'04'!G42+'05'!G42+'06'!G42+'07'!G42+'08'!G42+'09'!G42+'10'!G42+'11'!G42+'12'!G42+'13'!G42+'14'!G42+'15'!G42+'16'!G42+'17'!G42+'18'!G42+'19'!G42+'20'!G42+'21'!G42+'22'!G42+'23'!G42+'24'!G42+'25'!G42+'26'!G42+'27'!G42+'28'!G42+'29'!G42+'30'!G42+'31'!G42</f>
-        <v>27500</v>
+        <v>32500</v>
       </c>
       <c r="H42" s="13">
         <f>'01 '!H42+'02'!H42+'03'!H42+'04'!H42+'05'!H42+'06'!H42+'07'!H42+'08'!H42+'09'!H42+'10'!H42+'11'!H42+'12'!H42+'13'!H42+'14'!H42+'15'!H42+'16'!H42+'17'!H42+'18'!H42+'19'!H42+'20'!H42+'21'!H42+'22'!H42+'23'!H42+'24'!H42+'25'!H42+'26'!H42+'27'!H42+'28'!H42+'29'!H42+'30'!H42+'31'!H42</f>
-        <v>2788918</v>
+        <v>3777615</v>
       </c>
       <c r="I42" s="13">
         <f>SUM(C42:H42)</f>
-        <v>489978102</v>
+        <v>638415712</v>
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="12"/>
@@ -38479,19 +38479,19 @@
       </c>
       <c r="C43" s="15">
         <f>'01 '!C43+'02'!C43+'03'!C43+'04'!C43+'05'!C43+'06'!C43+'07'!C43+'08'!C43+'09'!C43+'10'!C43+'11'!C43+'12'!C43+'13'!C43+'14'!C43+'15'!C43+'16'!C43+'17'!C43+'18'!C43+'19'!C43+'20'!C43+'21'!C43+'22'!C43+'23'!C43+'24'!C43+'25'!C43+'26'!C43+'27'!C43+'28'!C43+'29'!C43+'30'!C43+'31'!C43</f>
-        <v>133864085</v>
+        <v>202498161</v>
       </c>
       <c r="D43" s="15">
         <f>'01 '!D43+'02'!D43+'03'!D43+'04'!D43+'05'!D43+'06'!D43+'07'!D43+'08'!D43+'09'!D43+'10'!D43+'11'!D43+'12'!D43+'13'!D43+'14'!D43+'15'!D43+'16'!D43+'17'!D43+'18'!D43+'19'!D43+'20'!D43+'21'!D43+'22'!D43+'23'!D43+'24'!D43+'25'!D43+'26'!D43+'27'!D43+'28'!D43+'29'!D43+'30'!D43+'31'!D43</f>
-        <v>11599993</v>
+        <v>32365710</v>
       </c>
       <c r="E43" s="15">
         <f>'01 '!E43+'02'!E43+'03'!E43+'04'!E43+'05'!E43+'06'!E43+'07'!E43+'08'!E43+'09'!E43+'10'!E43+'11'!E43+'12'!E43+'13'!E43+'14'!E43+'15'!E43+'16'!E43+'17'!E43+'18'!E43+'19'!E43+'20'!E43+'21'!E43+'22'!E43+'23'!E43+'24'!E43+'25'!E43+'26'!E43+'27'!E43+'28'!E43+'29'!E43+'30'!E43+'31'!E43</f>
-        <v>5356259</v>
+        <v>8235483</v>
       </c>
       <c r="F43" s="15">
         <f>'01 '!F43+'02'!F43+'03'!F43+'04'!F43+'05'!F43+'06'!F43+'07'!F43+'08'!F43+'09'!F43+'10'!F43+'11'!F43+'12'!F43+'13'!F43+'14'!F43+'15'!F43+'16'!F43+'17'!F43+'18'!F43+'19'!F43+'20'!F43+'21'!F43+'22'!F43+'23'!F43+'24'!F43+'25'!F43+'26'!F43+'27'!F43+'28'!F43+'29'!F43+'30'!F43+'31'!F43</f>
-        <v>1652782</v>
+        <v>1908124</v>
       </c>
       <c r="G43" s="15">
         <f>'01 '!G43+'02'!G43+'03'!G43+'04'!G43+'05'!G43+'06'!G43+'07'!G43+'08'!G43+'09'!G43+'10'!G43+'11'!G43+'12'!G43+'13'!G43+'14'!G43+'15'!G43+'16'!G43+'17'!G43+'18'!G43+'19'!G43+'20'!G43+'21'!G43+'22'!G43+'23'!G43+'24'!G43+'25'!G43+'26'!G43+'27'!G43+'28'!G43+'29'!G43+'30'!G43+'31'!G43</f>
@@ -38499,11 +38499,11 @@
       </c>
       <c r="H43" s="15">
         <f>'01 '!H43+'02'!H43+'03'!H43+'04'!H43+'05'!H43+'06'!H43+'07'!H43+'08'!H43+'09'!H43+'10'!H43+'11'!H43+'12'!H43+'13'!H43+'14'!H43+'15'!H43+'16'!H43+'17'!H43+'18'!H43+'19'!H43+'20'!H43+'21'!H43+'22'!H43+'23'!H43+'24'!H43+'25'!H43+'26'!H43+'27'!H43+'28'!H43+'29'!H43+'30'!H43+'31'!H43</f>
-        <v>1621020</v>
+        <v>4805559</v>
       </c>
       <c r="I43" s="15">
         <f>SUM(C43:H43)</f>
-        <v>154094139</v>
+        <v>249813037</v>
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="12"/>
@@ -38522,15 +38522,15 @@
       </c>
       <c r="C44" s="13">
         <f>'01 '!C44+'02'!C44+'03'!C44+'04'!C44+'05'!C44+'06'!C44+'07'!C44+'08'!C44+'09'!C44+'10'!C44+'11'!C44+'12'!C44+'13'!C44+'14'!C44+'15'!C44+'16'!C44+'17'!C44+'18'!C44+'19'!C44+'20'!C44+'21'!C44+'22'!C44+'23'!C44+'24'!C44+'25'!C44+'26'!C44+'27'!C44+'28'!C44+'29'!C44+'30'!C44+'31'!C44</f>
-        <v>40347</v>
+        <v>225331</v>
       </c>
       <c r="D44" s="13">
         <f>'01 '!D44+'02'!D44+'03'!D44+'04'!D44+'05'!D44+'06'!D44+'07'!D44+'08'!D44+'09'!D44+'10'!D44+'11'!D44+'12'!D44+'13'!D44+'14'!D44+'15'!D44+'16'!D44+'17'!D44+'18'!D44+'19'!D44+'20'!D44+'21'!D44+'22'!D44+'23'!D44+'24'!D44+'25'!D44+'26'!D44+'27'!D44+'28'!D44+'29'!D44+'30'!D44+'31'!D44</f>
-        <v>107895</v>
+        <v>563104</v>
       </c>
       <c r="E44" s="13">
         <f>'01 '!E44+'02'!E44+'03'!E44+'04'!E44+'05'!E44+'06'!E44+'07'!E44+'08'!E44+'09'!E44+'10'!E44+'11'!E44+'12'!E44+'13'!E44+'14'!E44+'15'!E44+'16'!E44+'17'!E44+'18'!E44+'19'!E44+'20'!E44+'21'!E44+'22'!E44+'23'!E44+'24'!E44+'25'!E44+'26'!E44+'27'!E44+'28'!E44+'29'!E44+'30'!E44+'31'!E44</f>
-        <v>1726</v>
+        <v>9428</v>
       </c>
       <c r="F44" s="13">
         <f>'01 '!F44+'02'!F44+'03'!F44+'04'!F44+'05'!F44+'06'!F44+'07'!F44+'08'!F44+'09'!F44+'10'!F44+'11'!F44+'12'!F44+'13'!F44+'14'!F44+'15'!F44+'16'!F44+'17'!F44+'18'!F44+'19'!F44+'20'!F44+'21'!F44+'22'!F44+'23'!F44+'24'!F44+'25'!F44+'26'!F44+'27'!F44+'28'!F44+'29'!F44+'30'!F44+'31'!F44</f>
@@ -38542,11 +38542,11 @@
       </c>
       <c r="H44" s="13">
         <f>'01 '!H44+'02'!H44+'03'!H44+'04'!H44+'05'!H44+'06'!H44+'07'!H44+'08'!H44+'09'!H44+'10'!H44+'11'!H44+'12'!H44+'13'!H44+'14'!H44+'15'!H44+'16'!H44+'17'!H44+'18'!H44+'19'!H44+'20'!H44+'21'!H44+'22'!H44+'23'!H44+'24'!H44+'25'!H44+'26'!H44+'27'!H44+'28'!H44+'29'!H44+'30'!H44+'31'!H44</f>
-        <v>77322</v>
+        <v>372420</v>
       </c>
       <c r="I44" s="13">
         <f>SUM(C44:H44)</f>
-        <v>227290</v>
+        <v>1170283</v>
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="12"/>
@@ -38560,15 +38560,15 @@
       </c>
       <c r="C45" s="15">
         <f>'01 '!C45+'02'!C45+'03'!C45+'04'!C45+'05'!C45+'06'!C45+'07'!C45+'08'!C45+'09'!C45+'10'!C45+'11'!C45+'12'!C45+'13'!C45+'14'!C45+'15'!C45+'16'!C45+'17'!C45+'18'!C45+'19'!C45+'20'!C45+'21'!C45+'22'!C45+'23'!C45+'24'!C45+'25'!C45+'26'!C45+'27'!C45+'28'!C45+'29'!C45+'30'!C45+'31'!C45</f>
-        <v>52200773</v>
+        <v>66536798</v>
       </c>
       <c r="D45" s="15">
         <f>'01 '!D45+'02'!D45+'03'!D45+'04'!D45+'05'!D45+'06'!D45+'07'!D45+'08'!D45+'09'!D45+'10'!D45+'11'!D45+'12'!D45+'13'!D45+'14'!D45+'15'!D45+'16'!D45+'17'!D45+'18'!D45+'19'!D45+'20'!D45+'21'!D45+'22'!D45+'23'!D45+'24'!D45+'25'!D45+'26'!D45+'27'!D45+'28'!D45+'29'!D45+'30'!D45+'31'!D45</f>
-        <v>5965441</v>
+        <v>9246792</v>
       </c>
       <c r="E45" s="15">
         <f>'01 '!E45+'02'!E45+'03'!E45+'04'!E45+'05'!E45+'06'!E45+'07'!E45+'08'!E45+'09'!E45+'10'!E45+'11'!E45+'12'!E45+'13'!E45+'14'!E45+'15'!E45+'16'!E45+'17'!E45+'18'!E45+'19'!E45+'20'!E45+'21'!E45+'22'!E45+'23'!E45+'24'!E45+'25'!E45+'26'!E45+'27'!E45+'28'!E45+'29'!E45+'30'!E45+'31'!E45</f>
-        <v>6334906</v>
+        <v>7132903</v>
       </c>
       <c r="F45" s="15">
         <f>'01 '!F45+'02'!F45+'03'!F45+'04'!F45+'05'!F45+'06'!F45+'07'!F45+'08'!F45+'09'!F45+'10'!F45+'11'!F45+'12'!F45+'13'!F45+'14'!F45+'15'!F45+'16'!F45+'17'!F45+'18'!F45+'19'!F45+'20'!F45+'21'!F45+'22'!F45+'23'!F45+'24'!F45+'25'!F45+'26'!F45+'27'!F45+'28'!F45+'29'!F45+'30'!F45+'31'!F45</f>
@@ -38580,11 +38580,11 @@
       </c>
       <c r="H45" s="15">
         <f>'01 '!H45+'02'!H45+'03'!H45+'04'!H45+'05'!H45+'06'!H45+'07'!H45+'08'!H45+'09'!H45+'10'!H45+'11'!H45+'12'!H45+'13'!H45+'14'!H45+'15'!H45+'16'!H45+'17'!H45+'18'!H45+'19'!H45+'20'!H45+'21'!H45+'22'!H45+'23'!H45+'24'!H45+'25'!H45+'26'!H45+'27'!H45+'28'!H45+'29'!H45+'30'!H45+'31'!H45</f>
-        <v>1162591</v>
+        <v>1574079</v>
       </c>
       <c r="I45" s="15">
         <f>SUM(C45:H45)</f>
-        <v>66089903</v>
+        <v>84916764</v>
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="12"/>
@@ -38603,31 +38603,31 @@
       </c>
       <c r="C46" s="13">
         <f>'01 '!C46+'02'!C46+'03'!C46+'04'!C46+'05'!C46+'06'!C46+'07'!C46+'08'!C46+'09'!C46+'10'!C46+'11'!C46+'12'!C46+'13'!C46+'14'!C46+'15'!C46+'16'!C46+'17'!C46+'18'!C46+'19'!C46+'20'!C46+'21'!C46+'22'!C46+'23'!C46+'24'!C46+'25'!C46+'26'!C46+'27'!C46+'28'!C46+'29'!C46+'30'!C46+'31'!C46</f>
-        <v>122562710</v>
+        <v>160931445</v>
       </c>
       <c r="D46" s="13">
         <f>'01 '!D46+'02'!D46+'03'!D46+'04'!D46+'05'!D46+'06'!D46+'07'!D46+'08'!D46+'09'!D46+'10'!D46+'11'!D46+'12'!D46+'13'!D46+'14'!D46+'15'!D46+'16'!D46+'17'!D46+'18'!D46+'19'!D46+'20'!D46+'21'!D46+'22'!D46+'23'!D46+'24'!D46+'25'!D46+'26'!D46+'27'!D46+'28'!D46+'29'!D46+'30'!D46+'31'!D46</f>
-        <v>6622792</v>
+        <v>9417833</v>
       </c>
       <c r="E46" s="13">
         <f>'01 '!E46+'02'!E46+'03'!E46+'04'!E46+'05'!E46+'06'!E46+'07'!E46+'08'!E46+'09'!E46+'10'!E46+'11'!E46+'12'!E46+'13'!E46+'14'!E46+'15'!E46+'16'!E46+'17'!E46+'18'!E46+'19'!E46+'20'!E46+'21'!E46+'22'!E46+'23'!E46+'24'!E46+'25'!E46+'26'!E46+'27'!E46+'28'!E46+'29'!E46+'30'!E46+'31'!E46</f>
-        <v>3100918</v>
+        <v>4306043</v>
       </c>
       <c r="F46" s="13">
         <f>'01 '!F46+'02'!F46+'03'!F46+'04'!F46+'05'!F46+'06'!F46+'07'!F46+'08'!F46+'09'!F46+'10'!F46+'11'!F46+'12'!F46+'13'!F46+'14'!F46+'15'!F46+'16'!F46+'17'!F46+'18'!F46+'19'!F46+'20'!F46+'21'!F46+'22'!F46+'23'!F46+'24'!F46+'25'!F46+'26'!F46+'27'!F46+'28'!F46+'29'!F46+'30'!F46+'31'!F46</f>
-        <v>379557</v>
+        <v>1061486</v>
       </c>
       <c r="G46" s="13">
         <f>'01 '!G46+'02'!G46+'03'!G46+'04'!G46+'05'!G46+'06'!G46+'07'!G46+'08'!G46+'09'!G46+'10'!G46+'11'!G46+'12'!G46+'13'!G46+'14'!G46+'15'!G46+'16'!G46+'17'!G46+'18'!G46+'19'!G46+'20'!G46+'21'!G46+'22'!G46+'23'!G46+'24'!G46+'25'!G46+'26'!G46+'27'!G46+'28'!G46+'29'!G46+'30'!G46+'31'!G46</f>
-        <v>20000</v>
+        <v>27500</v>
       </c>
       <c r="H46" s="13">
         <f>'01 '!H46+'02'!H46+'03'!H46+'04'!H46+'05'!H46+'06'!H46+'07'!H46+'08'!H46+'09'!H46+'10'!H46+'11'!H46+'12'!H46+'13'!H46+'14'!H46+'15'!H46+'16'!H46+'17'!H46+'18'!H46+'19'!H46+'20'!H46+'21'!H46+'22'!H46+'23'!H46+'24'!H46+'25'!H46+'26'!H46+'27'!H46+'28'!H46+'29'!H46+'30'!H46+'31'!H46</f>
-        <v>1453317</v>
+        <v>2035929</v>
       </c>
       <c r="I46" s="13">
         <f>SUM(C46:H46)</f>
-        <v>134139294</v>
+        <v>177780236</v>
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="12"/>
@@ -38646,19 +38646,19 @@
       </c>
       <c r="C47" s="15">
         <f>'01 '!C47+'02'!C47+'03'!C47+'04'!C47+'05'!C47+'06'!C47+'07'!C47+'08'!C47+'09'!C47+'10'!C47+'11'!C47+'12'!C47+'13'!C47+'14'!C47+'15'!C47+'16'!C47+'17'!C47+'18'!C47+'19'!C47+'20'!C47+'21'!C47+'22'!C47+'23'!C47+'24'!C47+'25'!C47+'26'!C47+'27'!C47+'28'!C47+'29'!C47+'30'!C47+'31'!C47</f>
-        <v>178774263</v>
+        <v>198046577</v>
       </c>
       <c r="D47" s="15">
         <f>'01 '!D47+'02'!D47+'03'!D47+'04'!D47+'05'!D47+'06'!D47+'07'!D47+'08'!D47+'09'!D47+'10'!D47+'11'!D47+'12'!D47+'13'!D47+'14'!D47+'15'!D47+'16'!D47+'17'!D47+'18'!D47+'19'!D47+'20'!D47+'21'!D47+'22'!D47+'23'!D47+'24'!D47+'25'!D47+'26'!D47+'27'!D47+'28'!D47+'29'!D47+'30'!D47+'31'!D47</f>
-        <v>4975978</v>
+        <v>5661144</v>
       </c>
       <c r="E47" s="15">
         <f>'01 '!E47+'02'!E47+'03'!E47+'04'!E47+'05'!E47+'06'!E47+'07'!E47+'08'!E47+'09'!E47+'10'!E47+'11'!E47+'12'!E47+'13'!E47+'14'!E47+'15'!E47+'16'!E47+'17'!E47+'18'!E47+'19'!E47+'20'!E47+'21'!E47+'22'!E47+'23'!E47+'24'!E47+'25'!E47+'26'!E47+'27'!E47+'28'!E47+'29'!E47+'30'!E47+'31'!E47</f>
-        <v>7298128</v>
+        <v>8223867</v>
       </c>
       <c r="F47" s="15">
         <f>'01 '!F47+'02'!F47+'03'!F47+'04'!F47+'05'!F47+'06'!F47+'07'!F47+'08'!F47+'09'!F47+'10'!F47+'11'!F47+'12'!F47+'13'!F47+'14'!F47+'15'!F47+'16'!F47+'17'!F47+'18'!F47+'19'!F47+'20'!F47+'21'!F47+'22'!F47+'23'!F47+'24'!F47+'25'!F47+'26'!F47+'27'!F47+'28'!F47+'29'!F47+'30'!F47+'31'!F47</f>
-        <v>23</v>
+        <v>64735</v>
       </c>
       <c r="G47" s="15">
         <f>'01 '!G47+'02'!G47+'03'!G47+'04'!G47+'05'!G47+'06'!G47+'07'!G47+'08'!G47+'09'!G47+'10'!G47+'11'!G47+'12'!G47+'13'!G47+'14'!G47+'15'!G47+'16'!G47+'17'!G47+'18'!G47+'19'!G47+'20'!G47+'21'!G47+'22'!G47+'23'!G47+'24'!G47+'25'!G47+'26'!G47+'27'!G47+'28'!G47+'29'!G47+'30'!G47+'31'!G47</f>
@@ -38666,11 +38666,11 @@
       </c>
       <c r="H47" s="15">
         <f>'01 '!H47+'02'!H47+'03'!H47+'04'!H47+'05'!H47+'06'!H47+'07'!H47+'08'!H47+'09'!H47+'10'!H47+'11'!H47+'12'!H47+'13'!H47+'14'!H47+'15'!H47+'16'!H47+'17'!H47+'18'!H47+'19'!H47+'20'!H47+'21'!H47+'22'!H47+'23'!H47+'24'!H47+'25'!H47+'26'!H47+'27'!H47+'28'!H47+'29'!H47+'30'!H47+'31'!H47</f>
-        <v>919929</v>
+        <v>1297053</v>
       </c>
       <c r="I47" s="15">
         <f>SUM(C47:H47)</f>
-        <v>191968321</v>
+        <v>213293376</v>
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="12"/>
@@ -38689,15 +38689,15 @@
       </c>
       <c r="C48" s="13">
         <f>'01 '!C48+'02'!C48+'03'!C48+'04'!C48+'05'!C48+'06'!C48+'07'!C48+'08'!C48+'09'!C48+'10'!C48+'11'!C48+'12'!C48+'13'!C48+'14'!C48+'15'!C48+'16'!C48+'17'!C48+'18'!C48+'19'!C48+'20'!C48+'21'!C48+'22'!C48+'23'!C48+'24'!C48+'25'!C48+'26'!C48+'27'!C48+'28'!C48+'29'!C48+'30'!C48+'31'!C48</f>
-        <v>10861103</v>
+        <v>13079180</v>
       </c>
       <c r="D48" s="13">
         <f>'01 '!D48+'02'!D48+'03'!D48+'04'!D48+'05'!D48+'06'!D48+'07'!D48+'08'!D48+'09'!D48+'10'!D48+'11'!D48+'12'!D48+'13'!D48+'14'!D48+'15'!D48+'16'!D48+'17'!D48+'18'!D48+'19'!D48+'20'!D48+'21'!D48+'22'!D48+'23'!D48+'24'!D48+'25'!D48+'26'!D48+'27'!D48+'28'!D48+'29'!D48+'30'!D48+'31'!D48</f>
-        <v>142796</v>
+        <v>449313</v>
       </c>
       <c r="E48" s="13">
         <f>'01 '!E48+'02'!E48+'03'!E48+'04'!E48+'05'!E48+'06'!E48+'07'!E48+'08'!E48+'09'!E48+'10'!E48+'11'!E48+'12'!E48+'13'!E48+'14'!E48+'15'!E48+'16'!E48+'17'!E48+'18'!E48+'19'!E48+'20'!E48+'21'!E48+'22'!E48+'23'!E48+'24'!E48+'25'!E48+'26'!E48+'27'!E48+'28'!E48+'29'!E48+'30'!E48+'31'!E48</f>
-        <v>79419</v>
+        <v>123927</v>
       </c>
       <c r="F48" s="13">
         <f>'01 '!F48+'02'!F48+'03'!F48+'04'!F48+'05'!F48+'06'!F48+'07'!F48+'08'!F48+'09'!F48+'10'!F48+'11'!F48+'12'!F48+'13'!F48+'14'!F48+'15'!F48+'16'!F48+'17'!F48+'18'!F48+'19'!F48+'20'!F48+'21'!F48+'22'!F48+'23'!F48+'24'!F48+'25'!F48+'26'!F48+'27'!F48+'28'!F48+'29'!F48+'30'!F48+'31'!F48</f>
@@ -38709,11 +38709,11 @@
       </c>
       <c r="H48" s="13">
         <f>'01 '!H48+'02'!H48+'03'!H48+'04'!H48+'05'!H48+'06'!H48+'07'!H48+'08'!H48+'09'!H48+'10'!H48+'11'!H48+'12'!H48+'13'!H48+'14'!H48+'15'!H48+'16'!H48+'17'!H48+'18'!H48+'19'!H48+'20'!H48+'21'!H48+'22'!H48+'23'!H48+'24'!H48+'25'!H48+'26'!H48+'27'!H48+'28'!H48+'29'!H48+'30'!H48+'31'!H48</f>
-        <v>2117075</v>
+        <v>2563224</v>
       </c>
       <c r="I48" s="13">
         <f>SUM(C48:H48)</f>
-        <v>13200393</v>
+        <v>16215644</v>
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="12"/>
@@ -38732,15 +38732,15 @@
       </c>
       <c r="C49" s="15">
         <f>'01 '!C49+'02'!C49+'03'!C49+'04'!C49+'05'!C49+'06'!C49+'07'!C49+'08'!C49+'09'!C49+'10'!C49+'11'!C49+'12'!C49+'13'!C49+'14'!C49+'15'!C49+'16'!C49+'17'!C49+'18'!C49+'19'!C49+'20'!C49+'21'!C49+'22'!C49+'23'!C49+'24'!C49+'25'!C49+'26'!C49+'27'!C49+'28'!C49+'29'!C49+'30'!C49+'31'!C49</f>
-        <v>36307803</v>
+        <v>47892760</v>
       </c>
       <c r="D49" s="15">
         <f>'01 '!D49+'02'!D49+'03'!D49+'04'!D49+'05'!D49+'06'!D49+'07'!D49+'08'!D49+'09'!D49+'10'!D49+'11'!D49+'12'!D49+'13'!D49+'14'!D49+'15'!D49+'16'!D49+'17'!D49+'18'!D49+'19'!D49+'20'!D49+'21'!D49+'22'!D49+'23'!D49+'24'!D49+'25'!D49+'26'!D49+'27'!D49+'28'!D49+'29'!D49+'30'!D49+'31'!D49</f>
-        <v>2962811</v>
+        <v>4428601</v>
       </c>
       <c r="E49" s="15">
         <f>'01 '!E49+'02'!E49+'03'!E49+'04'!E49+'05'!E49+'06'!E49+'07'!E49+'08'!E49+'09'!E49+'10'!E49+'11'!E49+'12'!E49+'13'!E49+'14'!E49+'15'!E49+'16'!E49+'17'!E49+'18'!E49+'19'!E49+'20'!E49+'21'!E49+'22'!E49+'23'!E49+'24'!E49+'25'!E49+'26'!E49+'27'!E49+'28'!E49+'29'!E49+'30'!E49+'31'!E49</f>
-        <v>944450</v>
+        <v>1188369</v>
       </c>
       <c r="F49" s="15">
         <f>'01 '!F49+'02'!F49+'03'!F49+'04'!F49+'05'!F49+'06'!F49+'07'!F49+'08'!F49+'09'!F49+'10'!F49+'11'!F49+'12'!F49+'13'!F49+'14'!F49+'15'!F49+'16'!F49+'17'!F49+'18'!F49+'19'!F49+'20'!F49+'21'!F49+'22'!F49+'23'!F49+'24'!F49+'25'!F49+'26'!F49+'27'!F49+'28'!F49+'29'!F49+'30'!F49+'31'!F49</f>
@@ -38748,15 +38748,15 @@
       </c>
       <c r="G49" s="15">
         <f>'01 '!G49+'02'!G49+'03'!G49+'04'!G49+'05'!G49+'06'!G49+'07'!G49+'08'!G49+'09'!G49+'10'!G49+'11'!G49+'12'!G49+'13'!G49+'14'!G49+'15'!G49+'16'!G49+'17'!G49+'18'!G49+'19'!G49+'20'!G49+'21'!G49+'22'!G49+'23'!G49+'24'!G49+'25'!G49+'26'!G49+'27'!G49+'28'!G49+'29'!G49+'30'!G49+'31'!G49</f>
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="H49" s="15">
         <f>'01 '!H49+'02'!H49+'03'!H49+'04'!H49+'05'!H49+'06'!H49+'07'!H49+'08'!H49+'09'!H49+'10'!H49+'11'!H49+'12'!H49+'13'!H49+'14'!H49+'15'!H49+'16'!H49+'17'!H49+'18'!H49+'19'!H49+'20'!H49+'21'!H49+'22'!H49+'23'!H49+'24'!H49+'25'!H49+'26'!H49+'27'!H49+'28'!H49+'29'!H49+'30'!H49+'31'!H49</f>
-        <v>2784478</v>
+        <v>3764316</v>
       </c>
       <c r="I49" s="15">
         <f>SUM(C49:H49)</f>
-        <v>43034542</v>
+        <v>57334046</v>
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="12"/>
@@ -38775,19 +38775,19 @@
       </c>
       <c r="C50" s="13">
         <f>'01 '!C50+'02'!C50+'03'!C50+'04'!C50+'05'!C50+'06'!C50+'07'!C50+'08'!C50+'09'!C50+'10'!C50+'11'!C50+'12'!C50+'13'!C50+'14'!C50+'15'!C50+'16'!C50+'17'!C50+'18'!C50+'19'!C50+'20'!C50+'21'!C50+'22'!C50+'23'!C50+'24'!C50+'25'!C50+'26'!C50+'27'!C50+'28'!C50+'29'!C50+'30'!C50+'31'!C50</f>
-        <v>140833397</v>
+        <v>184423282</v>
       </c>
       <c r="D50" s="13">
         <f>'01 '!D50+'02'!D50+'03'!D50+'04'!D50+'05'!D50+'06'!D50+'07'!D50+'08'!D50+'09'!D50+'10'!D50+'11'!D50+'12'!D50+'13'!D50+'14'!D50+'15'!D50+'16'!D50+'17'!D50+'18'!D50+'19'!D50+'20'!D50+'21'!D50+'22'!D50+'23'!D50+'24'!D50+'25'!D50+'26'!D50+'27'!D50+'28'!D50+'29'!D50+'30'!D50+'31'!D50</f>
-        <v>21180966</v>
+        <v>25262673</v>
       </c>
       <c r="E50" s="13">
         <f>'01 '!E50+'02'!E50+'03'!E50+'04'!E50+'05'!E50+'06'!E50+'07'!E50+'08'!E50+'09'!E50+'10'!E50+'11'!E50+'12'!E50+'13'!E50+'14'!E50+'15'!E50+'16'!E50+'17'!E50+'18'!E50+'19'!E50+'20'!E50+'21'!E50+'22'!E50+'23'!E50+'24'!E50+'25'!E50+'26'!E50+'27'!E50+'28'!E50+'29'!E50+'30'!E50+'31'!E50</f>
-        <v>9078705</v>
+        <v>10777924</v>
       </c>
       <c r="F50" s="13">
         <f>'01 '!F50+'02'!F50+'03'!F50+'04'!F50+'05'!F50+'06'!F50+'07'!F50+'08'!F50+'09'!F50+'10'!F50+'11'!F50+'12'!F50+'13'!F50+'14'!F50+'15'!F50+'16'!F50+'17'!F50+'18'!F50+'19'!F50+'20'!F50+'21'!F50+'22'!F50+'23'!F50+'24'!F50+'25'!F50+'26'!F50+'27'!F50+'28'!F50+'29'!F50+'30'!F50+'31'!F50</f>
-        <v>131862</v>
+        <v>141257</v>
       </c>
       <c r="G50" s="13">
         <f>'01 '!G50+'02'!G50+'03'!G50+'04'!G50+'05'!G50+'06'!G50+'07'!G50+'08'!G50+'09'!G50+'10'!G50+'11'!G50+'12'!G50+'13'!G50+'14'!G50+'15'!G50+'16'!G50+'17'!G50+'18'!G50+'19'!G50+'20'!G50+'21'!G50+'22'!G50+'23'!G50+'24'!G50+'25'!G50+'26'!G50+'27'!G50+'28'!G50+'29'!G50+'30'!G50+'31'!G50</f>
@@ -38795,11 +38795,11 @@
       </c>
       <c r="H50" s="13">
         <f>'01 '!H50+'02'!H50+'03'!H50+'04'!H50+'05'!H50+'06'!H50+'07'!H50+'08'!H50+'09'!H50+'10'!H50+'11'!H50+'12'!H50+'13'!H50+'14'!H50+'15'!H50+'16'!H50+'17'!H50+'18'!H50+'19'!H50+'20'!H50+'21'!H50+'22'!H50+'23'!H50+'24'!H50+'25'!H50+'26'!H50+'27'!H50+'28'!H50+'29'!H50+'30'!H50+'31'!H50</f>
-        <v>3365572</v>
+        <v>4038478</v>
       </c>
       <c r="I50" s="13">
         <f>SUM(C50:H50)</f>
-        <v>174590502</v>
+        <v>224643614</v>
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="12"/>
@@ -38813,19 +38813,19 @@
       </c>
       <c r="C51" s="15">
         <f>'01 '!C51+'02'!C51+'03'!C51+'04'!C51+'05'!C51+'06'!C51+'07'!C51+'08'!C51+'09'!C51+'10'!C51+'11'!C51+'12'!C51+'13'!C51+'14'!C51+'15'!C51+'16'!C51+'17'!C51+'18'!C51+'19'!C51+'20'!C51+'21'!C51+'22'!C51+'23'!C51+'24'!C51+'25'!C51+'26'!C51+'27'!C51+'28'!C51+'29'!C51+'30'!C51+'31'!C51</f>
-        <v>313630479</v>
+        <v>412171882</v>
       </c>
       <c r="D51" s="15">
         <f>'01 '!D51+'02'!D51+'03'!D51+'04'!D51+'05'!D51+'06'!D51+'07'!D51+'08'!D51+'09'!D51+'10'!D51+'11'!D51+'12'!D51+'13'!D51+'14'!D51+'15'!D51+'16'!D51+'17'!D51+'18'!D51+'19'!D51+'20'!D51+'21'!D51+'22'!D51+'23'!D51+'24'!D51+'25'!D51+'26'!D51+'27'!D51+'28'!D51+'29'!D51+'30'!D51+'31'!D51</f>
-        <v>25913872</v>
+        <v>34647330</v>
       </c>
       <c r="E51" s="15">
         <f>'01 '!E51+'02'!E51+'03'!E51+'04'!E51+'05'!E51+'06'!E51+'07'!E51+'08'!E51+'09'!E51+'10'!E51+'11'!E51+'12'!E51+'13'!E51+'14'!E51+'15'!E51+'16'!E51+'17'!E51+'18'!E51+'19'!E51+'20'!E51+'21'!E51+'22'!E51+'23'!E51+'24'!E51+'25'!E51+'26'!E51+'27'!E51+'28'!E51+'29'!E51+'30'!E51+'31'!E51</f>
-        <v>6560331</v>
+        <v>8525437</v>
       </c>
       <c r="F51" s="15">
         <f>'01 '!F51+'02'!F51+'03'!F51+'04'!F51+'05'!F51+'06'!F51+'07'!F51+'08'!F51+'09'!F51+'10'!F51+'11'!F51+'12'!F51+'13'!F51+'14'!F51+'15'!F51+'16'!F51+'17'!F51+'18'!F51+'19'!F51+'20'!F51+'21'!F51+'22'!F51+'23'!F51+'24'!F51+'25'!F51+'26'!F51+'27'!F51+'28'!F51+'29'!F51+'30'!F51+'31'!F51</f>
-        <v>3593454</v>
+        <v>3801852</v>
       </c>
       <c r="G51" s="15">
         <f>'01 '!G51+'02'!G51+'03'!G51+'04'!G51+'05'!G51+'06'!G51+'07'!G51+'08'!G51+'09'!G51+'10'!G51+'11'!G51+'12'!G51+'13'!G51+'14'!G51+'15'!G51+'16'!G51+'17'!G51+'18'!G51+'19'!G51+'20'!G51+'21'!G51+'22'!G51+'23'!G51+'24'!G51+'25'!G51+'26'!G51+'27'!G51+'28'!G51+'29'!G51+'30'!G51+'31'!G51</f>
@@ -38833,11 +38833,11 @@
       </c>
       <c r="H51" s="15">
         <f>'01 '!H51+'02'!H51+'03'!H51+'04'!H51+'05'!H51+'06'!H51+'07'!H51+'08'!H51+'09'!H51+'10'!H51+'11'!H51+'12'!H51+'13'!H51+'14'!H51+'15'!H51+'16'!H51+'17'!H51+'18'!H51+'19'!H51+'20'!H51+'21'!H51+'22'!H51+'23'!H51+'24'!H51+'25'!H51+'26'!H51+'27'!H51+'28'!H51+'29'!H51+'30'!H51+'31'!H51</f>
-        <v>2049410</v>
+        <v>2590098</v>
       </c>
       <c r="I51" s="15">
         <f>SUM(C51:H51)</f>
-        <v>351861919</v>
+        <v>461850972</v>
       </c>
       <c r="J51" s="23"/>
       <c r="K51" s="12"/>
@@ -38856,19 +38856,19 @@
       </c>
       <c r="C52" s="13">
         <f>'01 '!C52+'02'!C52+'03'!C52+'04'!C52+'05'!C52+'06'!C52+'07'!C52+'08'!C52+'09'!C52+'10'!C52+'11'!C52+'12'!C52+'13'!C52+'14'!C52+'15'!C52+'16'!C52+'17'!C52+'18'!C52+'19'!C52+'20'!C52+'21'!C52+'22'!C52+'23'!C52+'24'!C52+'25'!C52+'26'!C52+'27'!C52+'28'!C52+'29'!C52+'30'!C52+'31'!C52</f>
-        <v>628695559</v>
+        <v>777779757</v>
       </c>
       <c r="D52" s="13">
         <f>'01 '!D52+'02'!D52+'03'!D52+'04'!D52+'05'!D52+'06'!D52+'07'!D52+'08'!D52+'09'!D52+'10'!D52+'11'!D52+'12'!D52+'13'!D52+'14'!D52+'15'!D52+'16'!D52+'17'!D52+'18'!D52+'19'!D52+'20'!D52+'21'!D52+'22'!D52+'23'!D52+'24'!D52+'25'!D52+'26'!D52+'27'!D52+'28'!D52+'29'!D52+'30'!D52+'31'!D52</f>
-        <v>26382403</v>
+        <v>37205565</v>
       </c>
       <c r="E52" s="13">
         <f>'01 '!E52+'02'!E52+'03'!E52+'04'!E52+'05'!E52+'06'!E52+'07'!E52+'08'!E52+'09'!E52+'10'!E52+'11'!E52+'12'!E52+'13'!E52+'14'!E52+'15'!E52+'16'!E52+'17'!E52+'18'!E52+'19'!E52+'20'!E52+'21'!E52+'22'!E52+'23'!E52+'24'!E52+'25'!E52+'26'!E52+'27'!E52+'28'!E52+'29'!E52+'30'!E52+'31'!E52</f>
-        <v>14397392</v>
+        <v>19141978</v>
       </c>
       <c r="F52" s="13">
         <f>'01 '!F52+'02'!F52+'03'!F52+'04'!F52+'05'!F52+'06'!F52+'07'!F52+'08'!F52+'09'!F52+'10'!F52+'11'!F52+'12'!F52+'13'!F52+'14'!F52+'15'!F52+'16'!F52+'17'!F52+'18'!F52+'19'!F52+'20'!F52+'21'!F52+'22'!F52+'23'!F52+'24'!F52+'25'!F52+'26'!F52+'27'!F52+'28'!F52+'29'!F52+'30'!F52+'31'!F52</f>
-        <v>3277666</v>
+        <v>6353226</v>
       </c>
       <c r="G52" s="13">
         <f>'01 '!G52+'02'!G52+'03'!G52+'04'!G52+'05'!G52+'06'!G52+'07'!G52+'08'!G52+'09'!G52+'10'!G52+'11'!G52+'12'!G52+'13'!G52+'14'!G52+'15'!G52+'16'!G52+'17'!G52+'18'!G52+'19'!G52+'20'!G52+'21'!G52+'22'!G52+'23'!G52+'24'!G52+'25'!G52+'26'!G52+'27'!G52+'28'!G52+'29'!G52+'30'!G52+'31'!G52</f>
@@ -38876,11 +38876,11 @@
       </c>
       <c r="H52" s="13">
         <f>'01 '!H52+'02'!H52+'03'!H52+'04'!H52+'05'!H52+'06'!H52+'07'!H52+'08'!H52+'09'!H52+'10'!H52+'11'!H52+'12'!H52+'13'!H52+'14'!H52+'15'!H52+'16'!H52+'17'!H52+'18'!H52+'19'!H52+'20'!H52+'21'!H52+'22'!H52+'23'!H52+'24'!H52+'25'!H52+'26'!H52+'27'!H52+'28'!H52+'29'!H52+'30'!H52+'31'!H52</f>
-        <v>6464912</v>
+        <v>7612095</v>
       </c>
       <c r="I52" s="13">
         <f>SUM(C52:H52)</f>
-        <v>679217932</v>
+        <v>848092621</v>
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="12"/>
@@ -38899,7 +38899,7 @@
       </c>
       <c r="C53" s="15">
         <f>'01 '!C53+'02'!C53+'03'!C53+'04'!C53+'05'!C53+'06'!C53+'07'!C53+'08'!C53+'09'!C53+'10'!C53+'11'!C53+'12'!C53+'13'!C53+'14'!C53+'15'!C53+'16'!C53+'17'!C53+'18'!C53+'19'!C53+'20'!C53+'21'!C53+'22'!C53+'23'!C53+'24'!C53+'25'!C53+'26'!C53+'27'!C53+'28'!C53+'29'!C53+'30'!C53+'31'!C53</f>
-        <v>21973140</v>
+        <v>288539181</v>
       </c>
       <c r="D53" s="15">
         <f>'01 '!D53+'02'!D53+'03'!D53+'04'!D53+'05'!D53+'06'!D53+'07'!D53+'08'!D53+'09'!D53+'10'!D53+'11'!D53+'12'!D53+'13'!D53+'14'!D53+'15'!D53+'16'!D53+'17'!D53+'18'!D53+'19'!D53+'20'!D53+'21'!D53+'22'!D53+'23'!D53+'24'!D53+'25'!D53+'26'!D53+'27'!D53+'28'!D53+'29'!D53+'30'!D53+'31'!D53</f>
@@ -38907,11 +38907,11 @@
       </c>
       <c r="E53" s="15">
         <f>'01 '!E53+'02'!E53+'03'!E53+'04'!E53+'05'!E53+'06'!E53+'07'!E53+'08'!E53+'09'!E53+'10'!E53+'11'!E53+'12'!E53+'13'!E53+'14'!E53+'15'!E53+'16'!E53+'17'!E53+'18'!E53+'19'!E53+'20'!E53+'21'!E53+'22'!E53+'23'!E53+'24'!E53+'25'!E53+'26'!E53+'27'!E53+'28'!E53+'29'!E53+'30'!E53+'31'!E53</f>
-        <v>4735</v>
+        <v>5163</v>
       </c>
       <c r="F53" s="15">
         <f>'01 '!F53+'02'!F53+'03'!F53+'04'!F53+'05'!F53+'06'!F53+'07'!F53+'08'!F53+'09'!F53+'10'!F53+'11'!F53+'12'!F53+'13'!F53+'14'!F53+'15'!F53+'16'!F53+'17'!F53+'18'!F53+'19'!F53+'20'!F53+'21'!F53+'22'!F53+'23'!F53+'24'!F53+'25'!F53+'26'!F53+'27'!F53+'28'!F53+'29'!F53+'30'!F53+'31'!F53</f>
-        <v>0</v>
+        <v>3593</v>
       </c>
       <c r="G53" s="15">
         <f>'01 '!G53+'02'!G53+'03'!G53+'04'!G53+'05'!G53+'06'!G53+'07'!G53+'08'!G53+'09'!G53+'10'!G53+'11'!G53+'12'!G53+'13'!G53+'14'!G53+'15'!G53+'16'!G53+'17'!G53+'18'!G53+'19'!G53+'20'!G53+'21'!G53+'22'!G53+'23'!G53+'24'!G53+'25'!G53+'26'!G53+'27'!G53+'28'!G53+'29'!G53+'30'!G53+'31'!G53</f>
@@ -38919,11 +38919,11 @@
       </c>
       <c r="H53" s="15">
         <f>'01 '!H53+'02'!H53+'03'!H53+'04'!H53+'05'!H53+'06'!H53+'07'!H53+'08'!H53+'09'!H53+'10'!H53+'11'!H53+'12'!H53+'13'!H53+'14'!H53+'15'!H53+'16'!H53+'17'!H53+'18'!H53+'19'!H53+'20'!H53+'21'!H53+'22'!H53+'23'!H53+'24'!H53+'25'!H53+'26'!H53+'27'!H53+'28'!H53+'29'!H53+'30'!H53+'31'!H53</f>
-        <v>84275</v>
+        <v>103555</v>
       </c>
       <c r="I53" s="15">
         <f>SUM(C53:H53)</f>
-        <v>22066584</v>
+        <v>288655926</v>
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="12"/>
@@ -38980,19 +38980,19 @@
       </c>
       <c r="C55" s="15">
         <f>'01 '!C55+'02'!C55+'03'!C55+'04'!C55+'05'!C55+'06'!C55+'07'!C55+'08'!C55+'09'!C55+'10'!C55+'11'!C55+'12'!C55+'13'!C55+'14'!C55+'15'!C55+'16'!C55+'17'!C55+'18'!C55+'19'!C55+'20'!C55+'21'!C55+'22'!C55+'23'!C55+'24'!C55+'25'!C55+'26'!C55+'27'!C55+'28'!C55+'29'!C55+'30'!C55+'31'!C55</f>
-        <v>9825054</v>
+        <v>12452188</v>
       </c>
       <c r="D55" s="15">
         <f>'01 '!D55+'02'!D55+'03'!D55+'04'!D55+'05'!D55+'06'!D55+'07'!D55+'08'!D55+'09'!D55+'10'!D55+'11'!D55+'12'!D55+'13'!D55+'14'!D55+'15'!D55+'16'!D55+'17'!D55+'18'!D55+'19'!D55+'20'!D55+'21'!D55+'22'!D55+'23'!D55+'24'!D55+'25'!D55+'26'!D55+'27'!D55+'28'!D55+'29'!D55+'30'!D55+'31'!D55</f>
-        <v>202794</v>
+        <v>892881</v>
       </c>
       <c r="E55" s="15">
         <f>'01 '!E55+'02'!E55+'03'!E55+'04'!E55+'05'!E55+'06'!E55+'07'!E55+'08'!E55+'09'!E55+'10'!E55+'11'!E55+'12'!E55+'13'!E55+'14'!E55+'15'!E55+'16'!E55+'17'!E55+'18'!E55+'19'!E55+'20'!E55+'21'!E55+'22'!E55+'23'!E55+'24'!E55+'25'!E55+'26'!E55+'27'!E55+'28'!E55+'29'!E55+'30'!E55+'31'!E55</f>
-        <v>506236</v>
+        <v>597218</v>
       </c>
       <c r="F55" s="15">
         <f>'01 '!F55+'02'!F55+'03'!F55+'04'!F55+'05'!F55+'06'!F55+'07'!F55+'08'!F55+'09'!F55+'10'!F55+'11'!F55+'12'!F55+'13'!F55+'14'!F55+'15'!F55+'16'!F55+'17'!F55+'18'!F55+'19'!F55+'20'!F55+'21'!F55+'22'!F55+'23'!F55+'24'!F55+'25'!F55+'26'!F55+'27'!F55+'28'!F55+'29'!F55+'30'!F55+'31'!F55</f>
-        <v>370835</v>
+        <v>464640</v>
       </c>
       <c r="G55" s="15">
         <f>'01 '!G55+'02'!G55+'03'!G55+'04'!G55+'05'!G55+'06'!G55+'07'!G55+'08'!G55+'09'!G55+'10'!G55+'11'!G55+'12'!G55+'13'!G55+'14'!G55+'15'!G55+'16'!G55+'17'!G55+'18'!G55+'19'!G55+'20'!G55+'21'!G55+'22'!G55+'23'!G55+'24'!G55+'25'!G55+'26'!G55+'27'!G55+'28'!G55+'29'!G55+'30'!G55+'31'!G55</f>
@@ -39000,11 +39000,11 @@
       </c>
       <c r="H55" s="15">
         <f>'01 '!H55+'02'!H55+'03'!H55+'04'!H55+'05'!H55+'06'!H55+'07'!H55+'08'!H55+'09'!H55+'10'!H55+'11'!H55+'12'!H55+'13'!H55+'14'!H55+'15'!H55+'16'!H55+'17'!H55+'18'!H55+'19'!H55+'20'!H55+'21'!H55+'22'!H55+'23'!H55+'24'!H55+'25'!H55+'26'!H55+'27'!H55+'28'!H55+'29'!H55+'30'!H55+'31'!H55</f>
-        <v>111278</v>
+        <v>146533</v>
       </c>
       <c r="I55" s="15">
         <f>SUM(C55:H55)</f>
-        <v>11016197</v>
+        <v>14553460</v>
       </c>
       <c r="J55" s="23"/>
       <c r="K55" s="12"/>
@@ -39018,19 +39018,19 @@
       </c>
       <c r="C56" s="13">
         <f>'01 '!C56+'02'!C56+'03'!C56+'04'!C56+'05'!C56+'06'!C56+'07'!C56+'08'!C56+'09'!C56+'10'!C56+'11'!C56+'12'!C56+'13'!C56+'14'!C56+'15'!C56+'16'!C56+'17'!C56+'18'!C56+'19'!C56+'20'!C56+'21'!C56+'22'!C56+'23'!C56+'24'!C56+'25'!C56+'26'!C56+'27'!C56+'28'!C56+'29'!C56+'30'!C56+'31'!C56</f>
-        <v>638353962</v>
+        <v>746374543</v>
       </c>
       <c r="D56" s="13">
         <f>'01 '!D56+'02'!D56+'03'!D56+'04'!D56+'05'!D56+'06'!D56+'07'!D56+'08'!D56+'09'!D56+'10'!D56+'11'!D56+'12'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56+'20'!D56+'21'!D56+'22'!D56+'23'!D56+'24'!D56+'25'!D56+'26'!D56+'27'!D56+'28'!D56+'29'!D56+'30'!D56+'31'!D56</f>
-        <v>114965697</v>
+        <v>124510322</v>
       </c>
       <c r="E56" s="13">
         <f>'01 '!E56+'02'!E56+'03'!E56+'04'!E56+'05'!E56+'06'!E56+'07'!E56+'08'!E56+'09'!E56+'10'!E56+'11'!E56+'12'!E56+'13'!E56+'14'!E56+'15'!E56+'16'!E56+'17'!E56+'18'!E56+'19'!E56+'20'!E56+'21'!E56+'22'!E56+'23'!E56+'24'!E56+'25'!E56+'26'!E56+'27'!E56+'28'!E56+'29'!E56+'30'!E56+'31'!E56</f>
-        <v>23389593</v>
+        <v>27245519</v>
       </c>
       <c r="F56" s="13">
         <f>'01 '!F56+'02'!F56+'03'!F56+'04'!F56+'05'!F56+'06'!F56+'07'!F56+'08'!F56+'09'!F56+'10'!F56+'11'!F56+'12'!F56+'13'!F56+'14'!F56+'15'!F56+'16'!F56+'17'!F56+'18'!F56+'19'!F56+'20'!F56+'21'!F56+'22'!F56+'23'!F56+'24'!F56+'25'!F56+'26'!F56+'27'!F56+'28'!F56+'29'!F56+'30'!F56+'31'!F56</f>
-        <v>3073203</v>
+        <v>3950227</v>
       </c>
       <c r="G56" s="13">
         <f>'01 '!G56+'02'!G56+'03'!G56+'04'!G56+'05'!G56+'06'!G56+'07'!G56+'08'!G56+'09'!G56+'10'!G56+'11'!G56+'12'!G56+'13'!G56+'14'!G56+'15'!G56+'16'!G56+'17'!G56+'18'!G56+'19'!G56+'20'!G56+'21'!G56+'22'!G56+'23'!G56+'24'!G56+'25'!G56+'26'!G56+'27'!G56+'28'!G56+'29'!G56+'30'!G56+'31'!G56</f>
@@ -39038,11 +39038,11 @@
       </c>
       <c r="H56" s="13">
         <f>'01 '!H56+'02'!H56+'03'!H56+'04'!H56+'05'!H56+'06'!H56+'07'!H56+'08'!H56+'09'!H56+'10'!H56+'11'!H56+'12'!H56+'13'!H56+'14'!H56+'15'!H56+'16'!H56+'17'!H56+'18'!H56+'19'!H56+'20'!H56+'21'!H56+'22'!H56+'23'!H56+'24'!H56+'25'!H56+'26'!H56+'27'!H56+'28'!H56+'29'!H56+'30'!H56+'31'!H56</f>
-        <v>25921577</v>
+        <v>26764852</v>
       </c>
       <c r="I56" s="13">
         <f>SUM(C56:H56)</f>
-        <v>805704032</v>
+        <v>928845463</v>
       </c>
       <c r="J56" s="23"/>
       <c r="K56" s="12"/>
@@ -39059,31 +39059,31 @@
       </c>
       <c r="C57" s="18">
         <f>SUM(C7:C56)</f>
-        <v>10862706600</v>
+        <v>15964522271</v>
       </c>
       <c r="D57" s="18">
         <f>SUM(D7:D56)</f>
-        <v>2072466778</v>
+        <v>2550859734</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E7:E56)</f>
-        <v>343747034</v>
+        <v>441707098</v>
       </c>
       <c r="F57" s="19">
         <f>SUM(F7:F56)</f>
-        <v>1335156843</v>
+        <v>2908755917</v>
       </c>
       <c r="G57" s="19">
         <f>SUM(G7:G56)</f>
-        <v>223562</v>
+        <v>261062</v>
       </c>
       <c r="H57" s="18">
         <f>SUM(H7:H56)</f>
-        <v>136158840</v>
+        <v>173380537</v>
       </c>
       <c r="I57" s="18">
         <f>SUM(I7:I56)</f>
-        <v>14750459657</v>
+        <v>22039486619</v>
       </c>
       <c r="J57" s="23"/>
       <c r="K57" s="12"/>
@@ -41021,7 +41021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C230E2-2326-440C-810C-B0225BB71BB5}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
@@ -42959,10 +42959,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2BDC3E-DA12-4A4A-89E1-9A86C93E8AC7}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="R81" sqref="R81:R82"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
@@ -42973,7 +42973,7 @@
     <col min="4" max="4" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="22" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="22" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" style="22" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="2"/>
@@ -43076,15 +43076,27 @@
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>17500</v>
+      </c>
       <c r="I7" s="11">
         <f>SUM(C7:H7)</f>
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="K7" s="12"/>
     </row>
@@ -43095,15 +43107,27 @@
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="C8" s="13">
+        <v>10121898</v>
+      </c>
+      <c r="D8" s="13">
+        <v>45277</v>
+      </c>
+      <c r="E8" s="13">
+        <v>22381</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>22870</v>
+      </c>
       <c r="I8" s="13">
         <f t="shared" ref="I8:I56" si="0">SUM(C8:H8)</f>
-        <v>0</v>
+        <v>10212426</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="12"/>
@@ -43120,15 +43144,27 @@
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="C9" s="15">
+        <v>161149</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>38786</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>4640</v>
+      </c>
       <c r="I9" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>204575</v>
       </c>
       <c r="K9" s="12"/>
     </row>
@@ -43158,15 +43194,27 @@
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="C11" s="15">
+        <v>694577421</v>
+      </c>
+      <c r="D11" s="15">
+        <v>27205768</v>
+      </c>
+      <c r="E11" s="15">
+        <v>10274804</v>
+      </c>
+      <c r="F11" s="15">
+        <v>702624910</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>2641075</v>
+      </c>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1437323978</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="12"/>
@@ -43183,15 +43231,27 @@
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="13">
+        <v>37350658</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>538143</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>12515</v>
+      </c>
       <c r="I12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37901316</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="12"/>
@@ -43208,15 +43268,27 @@
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="C13" s="15">
+        <v>4512585</v>
+      </c>
+      <c r="D13" s="15">
+        <v>619041</v>
+      </c>
+      <c r="E13" s="15">
+        <v>291003</v>
+      </c>
+      <c r="F13" s="15">
+        <v>91202</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>29281</v>
+      </c>
       <c r="I13" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5543112</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="12"/>
@@ -43233,15 +43305,27 @@
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="C14" s="13">
+        <v>23174449</v>
+      </c>
+      <c r="D14" s="13">
+        <v>11846317</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1201559</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>431936</v>
+      </c>
       <c r="I14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36654261</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="12"/>
@@ -43258,15 +43342,27 @@
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="C15" s="15">
+        <v>950303</v>
+      </c>
+      <c r="D15" s="15">
+        <v>56007</v>
+      </c>
+      <c r="E15" s="15">
+        <v>53893</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>11870</v>
+      </c>
       <c r="I15" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1072073</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="12"/>
@@ -43283,15 +43379,27 @@
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="C16" s="13">
+        <v>427845484</v>
+      </c>
+      <c r="D16" s="13">
+        <v>93520264</v>
+      </c>
+      <c r="E16" s="13">
+        <v>13901695</v>
+      </c>
+      <c r="F16" s="13">
+        <v>34489902</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>3289340</v>
+      </c>
       <c r="I16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>573046685</v>
       </c>
       <c r="K16" s="12"/>
     </row>
@@ -43302,15 +43410,27 @@
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="C17" s="15">
+        <v>12794</v>
+      </c>
+      <c r="D17" s="15">
+        <v>10281</v>
+      </c>
+      <c r="E17" s="15">
+        <v>548</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>23096</v>
+      </c>
       <c r="I17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46719</v>
       </c>
       <c r="K17" s="12"/>
     </row>
@@ -43321,15 +43441,27 @@
       <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="C18" s="13">
+        <v>330690948</v>
+      </c>
+      <c r="D18" s="13">
+        <v>110915275</v>
+      </c>
+      <c r="E18" s="13">
+        <v>14378716</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1053115</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>5264046</v>
+      </c>
       <c r="I18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>462302100</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="12"/>
@@ -43346,15 +43478,27 @@
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="C19" s="15">
+        <v>66852169</v>
+      </c>
+      <c r="D19" s="15">
+        <v>7617406</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1641273</v>
+      </c>
+      <c r="F19" s="15">
+        <v>16251287</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1155413</v>
+      </c>
       <c r="I19" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93517548</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="12"/>
@@ -43371,15 +43515,27 @@
       <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="C20" s="13">
+        <v>4306687</v>
+      </c>
+      <c r="D20" s="13">
+        <v>326152</v>
+      </c>
+      <c r="E20" s="13">
+        <v>48655</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>18660</v>
+      </c>
       <c r="I20" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4700154</v>
       </c>
       <c r="K20" s="12"/>
     </row>
@@ -43390,15 +43546,27 @@
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="C21" s="15">
+        <v>43161763</v>
+      </c>
+      <c r="D21" s="15">
+        <v>6054758</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1211390</v>
+      </c>
+      <c r="F21" s="15">
+        <v>644424</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>757580</v>
+      </c>
       <c r="I21" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51829915</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="12"/>
@@ -43415,15 +43583,27 @@
       <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="C22" s="13">
+        <v>25300023</v>
+      </c>
+      <c r="D22" s="13">
+        <v>8643225</v>
+      </c>
+      <c r="E22" s="13">
+        <v>720138</v>
+      </c>
+      <c r="F22" s="13">
+        <v>20481351</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>122388</v>
+      </c>
       <c r="I22" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55267125</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="12"/>
@@ -43440,15 +43620,27 @@
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="C23" s="15">
+        <v>10333894</v>
+      </c>
+      <c r="D23" s="15">
+        <v>454920</v>
+      </c>
+      <c r="E23" s="15">
+        <v>97651</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>5220</v>
+      </c>
       <c r="I23" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10891685</v>
       </c>
       <c r="K23" s="12"/>
     </row>
@@ -43459,15 +43651,27 @@
       <c r="B24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="C24" s="13">
+        <v>772607602</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2139630</v>
+      </c>
+      <c r="E24" s="13">
+        <v>949813</v>
+      </c>
+      <c r="F24" s="13">
+        <v>531510</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>484589</v>
+      </c>
       <c r="I24" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>776713144</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="12"/>
@@ -43484,15 +43688,27 @@
       <c r="B25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="C25" s="15">
+        <v>871777727</v>
+      </c>
+      <c r="D25" s="15">
+        <v>66184280</v>
+      </c>
+      <c r="E25" s="15">
+        <v>13459336</v>
+      </c>
+      <c r="F25" s="15">
+        <v>441057394</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>7513241</v>
+      </c>
       <c r="I25" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1399991978</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="12"/>
@@ -43509,15 +43725,27 @@
       <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="C26" s="13">
+        <v>4986818</v>
+      </c>
+      <c r="D26" s="13">
+        <v>4623</v>
+      </c>
+      <c r="E26" s="13">
+        <v>14486</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>31066</v>
+      </c>
       <c r="I26" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5036993</v>
       </c>
       <c r="K26" s="12"/>
     </row>
@@ -43528,15 +43756,27 @@
       <c r="B27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="C27" s="15">
+        <v>930902</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>20140</v>
+      </c>
       <c r="I27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>951042</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="12"/>
@@ -43553,15 +43793,27 @@
       <c r="B28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="C28" s="13">
+        <v>42362659</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1585239</v>
+      </c>
+      <c r="E28" s="13">
+        <v>523446</v>
+      </c>
+      <c r="F28" s="13">
+        <v>12879306</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>279927</v>
+      </c>
       <c r="I28" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57630577</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="12"/>
@@ -43578,15 +43830,27 @@
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="C29" s="15">
+        <v>21085343</v>
+      </c>
+      <c r="D29" s="15">
+        <v>2017653</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1538469</v>
+      </c>
+      <c r="F29" s="15">
+        <v>542873</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <v>180179</v>
+      </c>
       <c r="I29" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25364517</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="12"/>
@@ -43603,15 +43867,27 @@
       <c r="B30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="C30" s="13">
+        <v>234721334</v>
+      </c>
+      <c r="D30" s="13">
+        <v>5388903</v>
+      </c>
+      <c r="E30" s="13">
+        <v>2403264</v>
+      </c>
+      <c r="F30" s="13">
+        <v>68143187</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>757070</v>
+      </c>
       <c r="I30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>311413758</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="12"/>
@@ -43628,15 +43904,27 @@
       <c r="B31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="C31" s="15">
+        <v>138</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1336</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <v>23235</v>
+      </c>
       <c r="I31" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24709</v>
       </c>
       <c r="K31" s="12"/>
     </row>
@@ -43647,15 +43935,27 @@
       <c r="B32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="C32" s="13">
+        <v>657668</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2323</v>
+      </c>
+      <c r="E32" s="13">
+        <v>16855</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>21210</v>
+      </c>
       <c r="I32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>698056</v>
       </c>
       <c r="J32" s="14"/>
       <c r="K32" s="12"/>
@@ -43672,15 +43972,27 @@
       <c r="B33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="C33" s="15">
+        <v>69759667</v>
+      </c>
+      <c r="D33" s="15">
+        <v>42321</v>
+      </c>
+      <c r="E33" s="15">
+        <v>17017</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
+        <v>46780</v>
+      </c>
       <c r="I33" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69865785</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="12"/>
@@ -43697,15 +44009,27 @@
       <c r="B34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="C34" s="13">
+        <v>8960975</v>
+      </c>
+      <c r="D34" s="13">
+        <v>52751</v>
+      </c>
+      <c r="E34" s="13">
+        <v>217756</v>
+      </c>
+      <c r="F34" s="13">
+        <v>164349</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>670262</v>
+      </c>
       <c r="I34" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10066093</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="12"/>
@@ -43722,15 +44046,27 @@
       <c r="B35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="C35" s="15">
+        <v>48318541</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>21404</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15">
+        <v>50780</v>
+      </c>
       <c r="I35" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48390725</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="12"/>
@@ -43747,15 +44083,27 @@
       <c r="B36" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="C36" s="13">
+        <v>2015980</v>
+      </c>
+      <c r="D36" s="13">
+        <v>20182</v>
+      </c>
+      <c r="E36" s="13">
+        <v>24882</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>165573</v>
+      </c>
       <c r="I36" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2226617</v>
       </c>
       <c r="K36" s="12"/>
     </row>
@@ -43766,15 +44114,27 @@
       <c r="B37" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="C37" s="15">
+        <v>70415812</v>
+      </c>
+      <c r="D37" s="15">
+        <v>10386749</v>
+      </c>
+      <c r="E37" s="15">
+        <v>2673136</v>
+      </c>
+      <c r="F37" s="15">
+        <v>784761</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>1165186</v>
+      </c>
       <c r="I37" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85425644</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="12"/>
@@ -43791,15 +44151,27 @@
       <c r="B38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="C38" s="13">
+        <v>39428899</v>
+      </c>
+      <c r="D38" s="13">
+        <v>132010</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1391430</v>
+      </c>
+      <c r="F38" s="13">
+        <v>73535913</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>3815</v>
+      </c>
       <c r="I38" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114492067</v>
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="12"/>
@@ -43816,15 +44188,27 @@
       <c r="B39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
+      <c r="C39" s="15">
+        <v>278246502</v>
+      </c>
+      <c r="D39" s="15">
+        <v>36872235</v>
+      </c>
+      <c r="E39" s="15">
+        <v>7041485</v>
+      </c>
+      <c r="F39" s="15">
+        <v>195033676</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>946507</v>
+      </c>
       <c r="I39" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>518140405</v>
       </c>
       <c r="J39" s="14"/>
       <c r="K39" s="12"/>
@@ -43841,15 +44225,27 @@
       <c r="B40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="C40" s="13">
+        <v>11389886</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1276258</v>
+      </c>
+      <c r="E40" s="13">
+        <v>176349</v>
+      </c>
+      <c r="F40" s="13">
+        <v>124</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>80814</v>
+      </c>
       <c r="I40" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12923431</v>
       </c>
       <c r="J40" s="14"/>
       <c r="K40" s="12"/>
@@ -43866,15 +44262,27 @@
       <c r="B41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
+      <c r="C41" s="15">
+        <v>286211</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1578</v>
+      </c>
+      <c r="E41" s="15">
+        <v>10695</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <v>449761</v>
+      </c>
       <c r="I41" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>748245</v>
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="12"/>
@@ -43891,15 +44299,27 @@
       <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="C42" s="13">
+        <v>121482372</v>
+      </c>
+      <c r="D42" s="13">
+        <v>21343700</v>
+      </c>
+      <c r="E42" s="13">
+        <v>4597809</v>
+      </c>
+      <c r="F42" s="13">
+        <v>20032</v>
+      </c>
+      <c r="G42" s="13">
+        <v>5000</v>
+      </c>
+      <c r="H42" s="13">
+        <v>988697</v>
+      </c>
       <c r="I42" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>148437610</v>
       </c>
       <c r="J42" s="14"/>
       <c r="K42" s="12"/>
@@ -43916,15 +44336,27 @@
       <c r="B43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
+      <c r="C43" s="15">
+        <v>68634076</v>
+      </c>
+      <c r="D43" s="15">
+        <v>20765717</v>
+      </c>
+      <c r="E43" s="15">
+        <v>2879224</v>
+      </c>
+      <c r="F43" s="15">
+        <v>255342</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>3184539</v>
+      </c>
       <c r="I43" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95718898</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="12"/>
@@ -43941,15 +44373,27 @@
       <c r="B44" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="C44" s="13">
+        <v>184984</v>
+      </c>
+      <c r="D44" s="13">
+        <v>455209</v>
+      </c>
+      <c r="E44" s="13">
+        <v>7702</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>295098</v>
+      </c>
       <c r="I44" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>942993</v>
       </c>
       <c r="K44" s="12"/>
     </row>
@@ -43960,15 +44404,27 @@
       <c r="B45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="C45" s="15">
+        <v>14336025</v>
+      </c>
+      <c r="D45" s="15">
+        <v>3281351</v>
+      </c>
+      <c r="E45" s="15">
+        <v>797997</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15">
+        <v>411488</v>
+      </c>
       <c r="I45" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18826861</v>
       </c>
       <c r="J45" s="14"/>
       <c r="K45" s="12"/>
@@ -43985,15 +44441,27 @@
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="C46" s="13">
+        <v>38368735</v>
+      </c>
+      <c r="D46" s="13">
+        <v>2795041</v>
+      </c>
+      <c r="E46" s="13">
+        <v>1205125</v>
+      </c>
+      <c r="F46" s="13">
+        <v>681929</v>
+      </c>
+      <c r="G46" s="13">
+        <v>7500</v>
+      </c>
+      <c r="H46" s="13">
+        <v>582612</v>
+      </c>
       <c r="I46" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43640942</v>
       </c>
       <c r="J46" s="14"/>
       <c r="K46" s="12"/>
@@ -44010,15 +44478,27 @@
       <c r="B47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+      <c r="C47" s="15">
+        <v>19272314</v>
+      </c>
+      <c r="D47" s="15">
+        <v>685166</v>
+      </c>
+      <c r="E47" s="15">
+        <v>925739</v>
+      </c>
+      <c r="F47" s="15">
+        <v>64712</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>377124</v>
+      </c>
       <c r="I47" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21325055</v>
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="12"/>
@@ -44035,15 +44515,27 @@
       <c r="B48" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="C48" s="13">
+        <v>2218077</v>
+      </c>
+      <c r="D48" s="13">
+        <v>306517</v>
+      </c>
+      <c r="E48" s="13">
+        <v>44508</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>446149</v>
+      </c>
       <c r="I48" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3015251</v>
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="12"/>
@@ -44060,15 +44552,27 @@
       <c r="B49" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
+      <c r="C49" s="15">
+        <v>11584957</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1465790</v>
+      </c>
+      <c r="E49" s="15">
+        <v>243919</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>25000</v>
+      </c>
+      <c r="H49" s="15">
+        <v>979838</v>
+      </c>
       <c r="I49" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14299504</v>
       </c>
       <c r="J49" s="14"/>
       <c r="K49" s="12"/>
@@ -44085,15 +44589,27 @@
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="C50" s="13">
+        <v>43589885</v>
+      </c>
+      <c r="D50" s="13">
+        <v>4081707</v>
+      </c>
+      <c r="E50" s="13">
+        <v>1699219</v>
+      </c>
+      <c r="F50" s="13">
+        <v>9395</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>672906</v>
+      </c>
       <c r="I50" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50053112</v>
       </c>
       <c r="K50" s="12"/>
     </row>
@@ -44104,15 +44620,27 @@
       <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
+      <c r="C51" s="15">
+        <v>98541403</v>
+      </c>
+      <c r="D51" s="15">
+        <v>8733458</v>
+      </c>
+      <c r="E51" s="15">
+        <v>1965106</v>
+      </c>
+      <c r="F51" s="15">
+        <v>208398</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15">
+        <v>540688</v>
+      </c>
       <c r="I51" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109989053</v>
       </c>
       <c r="J51" s="14"/>
       <c r="K51" s="12"/>
@@ -44129,15 +44657,27 @@
       <c r="B52" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="C52" s="13">
+        <v>149084198</v>
+      </c>
+      <c r="D52" s="13">
+        <v>10823162</v>
+      </c>
+      <c r="E52" s="13">
+        <v>4744586</v>
+      </c>
+      <c r="F52" s="13">
+        <v>3075560</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1147183</v>
+      </c>
       <c r="I52" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>168874689</v>
       </c>
       <c r="J52" s="14"/>
       <c r="K52" s="12"/>
@@ -44154,15 +44694,27 @@
       <c r="B53" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="C53" s="15">
+        <v>266566041</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0</v>
+      </c>
+      <c r="E53" s="15">
+        <v>428</v>
+      </c>
+      <c r="F53" s="15">
+        <v>3593</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <v>19280</v>
+      </c>
       <c r="I53" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>266589342</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="12"/>
@@ -44198,15 +44750,27 @@
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="C55" s="15">
+        <v>2627134</v>
+      </c>
+      <c r="D55" s="15">
+        <v>690087</v>
+      </c>
+      <c r="E55" s="15">
+        <v>90982</v>
+      </c>
+      <c r="F55" s="15">
+        <v>93805</v>
+      </c>
+      <c r="G55" s="15">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15">
+        <v>35255</v>
+      </c>
       <c r="I55" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3537263</v>
       </c>
       <c r="K55" s="12"/>
     </row>
@@ -44217,15 +44781,27 @@
       <c r="B56" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="C56" s="13">
+        <v>108020581</v>
+      </c>
+      <c r="D56" s="13">
+        <v>9544625</v>
+      </c>
+      <c r="E56" s="13">
+        <v>3855926</v>
+      </c>
+      <c r="F56" s="13">
+        <v>877024</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>843275</v>
+      </c>
       <c r="I56" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>123141431</v>
       </c>
       <c r="J56" s="14"/>
       <c r="K56" s="12"/>
@@ -44242,33 +44818,35 @@
       </c>
       <c r="C57" s="18">
         <f t="shared" ref="C57:I57" si="1">SUM(C7:C56)</f>
-        <v>0</v>
+        <v>5101815671</v>
       </c>
       <c r="D57" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>478392956</v>
       </c>
       <c r="E57" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>97960064</v>
       </c>
       <c r="F57" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1573599074</v>
       </c>
       <c r="G57" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="H57" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37221697</v>
       </c>
       <c r="I57" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
+        <v>7289026962</v>
+      </c>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="59" spans="1:16" ht="16.5"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
